--- a/data/hotels_by_city/Dallas/Dallas_shard_53.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_53.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="930">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>152nora</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>What's not to like? The lobby and the rooms are lovely, great pool, nice bar/restaurant area, wonderful fitness room, friendly staff and the price is so reasonable!    15 to 20 minute drive to DFW airport.More</t>
   </si>
   <si>
+    <t>Mark G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r575294177-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>First… I want to say that the staff at this hotel was friendly, accommodating, and helpful… everything that I could ask from a hotel staff anywhere.  Having said that, about 200 yards from the noisy, ugly Texas State Highway 114 lies the new and reasonably attractive Cambria. Problem #1 was finding the entrance, which is not lit, has no sign, and is very hard to see after dark! The lobby and the rest of the hotel is modern and has a somewhat pared down, cold look to it, but it is attractive.  Our room? Again reasonably modern… BUT no drawers to put clothes away in, a small armoire instead of a closet – There was a lock box, a small fridge, and an iron and ironing board, though. The room was clean, but…..bathroom?  the  soap dish wouldn’t hold the soap provided (kept slipping through the drain slats forcing  us to bend down to retrieve it, the toilet seat wouldn’t stay up, the toilet paper holder was hanging off the wall…Difficult to set temperature of the room...  in other words throughout the hotel there are many details to which much more attention needs to be paid to. Housekeeping was exceptionally slow, showing up in the late afternoon or evening or (once) not at all. Breakfast? Good but definitely NOT great! And definitely over priced for what you get. Details again: 2 self serve canisters of brewed coffee – one marked regular...First… I want to say that the staff at this hotel was friendly, accommodating, and helpful… everything that I could ask from a hotel staff anywhere.  Having said that, about 200 yards from the noisy, ugly Texas State Highway 114 lies the new and reasonably attractive Cambria. Problem #1 was finding the entrance, which is not lit, has no sign, and is very hard to see after dark! The lobby and the rest of the hotel is modern and has a somewhat pared down, cold look to it, but it is attractive.  Our room? Again reasonably modern… BUT no drawers to put clothes away in, a small armoire instead of a closet – There was a lock box, a small fridge, and an iron and ironing board, though. The room was clean, but…..bathroom?  the  soap dish wouldn’t hold the soap provided (kept slipping through the drain slats forcing  us to bend down to retrieve it, the toilet seat wouldn’t stay up, the toilet paper holder was hanging off the wall…Difficult to set temperature of the room...  in other words throughout the hotel there are many details to which much more attention needs to be paid to. Housekeeping was exceptionally slow, showing up in the late afternoon or evening or (once) not at all. Breakfast? Good but definitely NOT great! And definitely over priced for what you get. Details again: 2 self serve canisters of brewed coffee – one marked regular and the other??? The service at breakfast? Very good but slow because there was only 1 person assigned to it. Fortunately one of the front desk people came to help out. Bar? A nice one and a good bartender. But again, only 1 person to handle it all. On the plus side there is a very nice outdoor pool and an uncharacteristically good (for this level of hotel) exercise room.  There are some nice amenities in the lobby, too – self serve store for needed over the counter drugs, snacks, and drinks… some nice (but Spartan in look and feel) sitting areas with large screen TVs.  We were staying at the Cambria as part of group of people attending a wedding nearby. This is a comfortable, serviceable hotel… certainly convenient to the highway. I wouldn’t choose it again without specific  need to be in the area, though. For the price, I think the management could do better by its guests!More</t>
   </si>
   <si>
+    <t>Rodukas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r574871358-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>I found the staff quite friendly and ready to help you. The rooms are really huge and clean. Spent a nice stay there, would recommend.There's a mall nearby, you can see it from the hotel, but you need to cross on of these infamous US motorways... So forget using your feet and try taking the hotel shuttle instead.More</t>
   </si>
   <si>
+    <t>BobBrydon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r574611100-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>Rooms are very modern, clean &amp; comfortable. I stay here every trip. Rates are also very reasonable for the experience. Close to Gateway Church and many great restaurants. And the service is friendly and courteous.More</t>
   </si>
   <si>
+    <t>Paul T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r574342993-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -294,6 +309,9 @@
     <t>I am really pleased from my quick trip this hotel!From the friendliness of the staff from the minute I walked in to the minute I left, they were always eager to go above and beyond! The rooms are generous in size and nice quality finishes make this a great hotel close to the DFW airport. Also the shuttle service was a nice touch to take you the shopping area!Definitely would stay again!More</t>
   </si>
   <si>
+    <t>Smrutle83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r573970164-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -315,6 +333,9 @@
     <t>Moving to dallas for work and I have stayed  off and on almost a month. Staff is amazing and I refuse to go elsewhere. Decided to skip the extended stay hotels this last time and say at the Cambria while waiting for our house even. I love it !! Thank you!More</t>
   </si>
   <si>
+    <t>BR4DY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r573724844-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -339,6 +360,9 @@
     <t>Excellent hotel with great facilities.  Loved the room, nice and big with good bathroom (great shower) - the bed was super comfy - we were very impressed.  Location is good too - there are plenty of malls nearby which occupied my wife whilst I was working and they do a free shuttle service to anything within a 5 mile radius - they are still building near the hotel, but we didn't hear a thing.  Staff were very friendly and easy to talk to.This would have got a 5 star rating if we wanted a room only - we wanted B&amp;B and the breakfast options let the hotel down - small selection, repetitive food and overpriced.  I only paid for the breakfast because of the convenience - if they offered a reduced B&amp;B rate, it probably wouldn't be so much of a problem - but $15 (plus tip) each day is very steep for what you get - it seemed out of kilter with the rest of the hotel.  I'd definitely return again.More</t>
   </si>
   <si>
+    <t>rafaelrjr3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r573267135-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -360,6 +384,9 @@
     <t>Great central location to airport and other northern sorrounding areas.. Rooms are great and very clean. Staff were very friendly and accommodation was very helpful. Great all you can eat morning buffet.More</t>
   </si>
   <si>
+    <t>Wayno2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r572962824-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -384,6 +411,9 @@
     <t>Last Friday was my first stay at a Cambria Suites.  Checking in was a breeze.  Very new and modern.  My second floor room looked out to the pool.  Walk in shower was very good.  Restaurant had a limited menu and my burger and fries with tip was over 19 dollars.More</t>
   </si>
   <si>
+    <t>GoUSNR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r571941760-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -408,6 +438,9 @@
     <t>Someone else made our hotel reservations. I would have never picked Cambria because I have never even heard of them. What a pleasant surprise. Very clean, modern hotel. The room was FABULOUS. Staff was very nice. We had a meeting in one of the rooms in the back. The food was very tasty and plentiful. I will stay there again, and recommend you do too! I think I need to find out where else Cambria hotels are located.More</t>
   </si>
   <si>
+    <t>cmiller765</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r570261546-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -432,6 +465,9 @@
     <t>This property is pretty new and is by far one of the most well kept hotels I’ve stayed in. The rooms are clean and have plenty of space. The hotel in itself is extremely nice and has a great outdoor entertainment area. The staff is top shelf and made me feel welcome and comfortable during my stay. I will definitely be staying at the Cambria next time I’m in Southlake!More</t>
   </si>
   <si>
+    <t>933jeremiahj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r569180739-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -456,6 +492,9 @@
     <t>PROS: This hotel is such an amazing family hotel!  The hotel is modern and upscale! CONS: The TV's don't allow you to play video games on them!  They are programed not to work with outside devices like our XBOX or PlayStation... They need to change this!!  We had to go purchase a TV from a local Walmart store for our son and friends to play their games for their birthday celebration!  Of course we played games outdoors as well!  I still give it a 9.5 out of 10 rating!More</t>
   </si>
   <si>
+    <t>nationalparksgal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r568742142-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -480,6 +519,9 @@
     <t>The hotel itself is great, looks pretty new and not a bad location. The desk staff were all very friendly and helpful. The hotel offers a breakfast buffet for $15.00, we chose to eat elsewhere.  The only negative we had was the very noisy children in the room next door, yelling and running!More</t>
   </si>
   <si>
+    <t>Stormrider45</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r568424970-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -498,6 +540,9 @@
     <t>Staff was efficient and courteous.  Beds were comfortable and the rooms large.  However, it was the most god-awful sterile environment one could imagine.  The decor was early industrial.  Nothing warm or inviting about the lobby or bar area.  Conveniently located and a couple of restaurants next door are under construction.  This is the kicker.  I was on expense but I refuse to waste my employer’s money and I will strongly recommend using this outfit again and we travel in groups of 6-12.  They offer a breakfast buffet that is one step above the usual free breakfast offered at $60 a night outfits AND they wanted $15.00 per plate.  Are you kidding?  I could not eat $15 worth of scrambled eggs, etc. in a week.  Maybe Uber techie millennial brats will find this place inviting.  Those of us that know real quality will avoid it like the plague.See to your weapons and stand to your horses,StormMore</t>
   </si>
   <si>
+    <t>Michael C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r567045944-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -522,6 +567,9 @@
     <t>This place is great! I love how modern everything looks and how friendly everyone is. I asked for restaurant recommendations and they were great! They also have games outside by the pool and a really nice fire pit. I would definitely recommend this place to people. More</t>
   </si>
   <si>
+    <t>andreamdanley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r565817798-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -546,6 +594,9 @@
     <t>We had a great girls get away here.  We received excellent customer service and I loved the texting for blankets &amp; towels or questions etc. It’s conveniently located to many DFW attractions and also a great place to stay in and relax in the bar/restaurant or outside. More</t>
   </si>
   <si>
+    <t>Daniel B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r565735148-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -568,6 +619,9 @@
   </si>
   <si>
     <t>What an amazing stay. The look, both outside and the rooms, of this hotel is so modern and fun. We had such an enjoyable stay. The staff was super knowledgeable about the area and helped us out with questions.One note: the shower was weird. Perhaps we are not up to speed with modern shower styles, but be prepared for the shower to stop and not have a closed door design. It was very interesting!More</t>
+  </si>
+  <si>
+    <t>Mark B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r564721871-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
@@ -596,6 +650,9 @@
 There were a couple of quirks that I had issues with. The bathroom "door" is a sliding barn door. Which is fine and kind of cool looking. The problem is there's no seal. You hear EVERYTHING that's going on in the bathroom. You'd be very comfortable with whoever your with because, if you're not, you're about to learn things you...The staff was incredibly friendly and helpful. Check-in was a breeze. It's like they were waiting for us and we got there right at 3 pm. Our room keys were already ready and waiting. The hotel is fairly new to the area. There's plenty of construction going on around it but it didn't affect our stay at all. The room was huge! We had a king bed room. There was a small section couch in the corner of the room with a small table. There was a long table along the wall with several electrical and USB outlets for using your laptop and whatever. A large flat screen mounted to the wall was over that facing the bed. The A/C worked great. It's not one of those oversized window units built into the wall. The bed was comfy if not a little stiff. The pillows were plentiful and fluffy. There's a large wardrobe closet along with a very nice stand with a coffee maker, ice bucket, etc., and a mini fridge under that. The room was laid out really well.There were a couple of quirks that I had issues with. The bathroom "door" is a sliding barn door. Which is fine and kind of cool looking. The problem is there's no seal. You hear EVERYTHING that's going on in the bathroom. You'd be very comfortable with whoever your with because, if you're not, you're about to learn things you may not want to know.The way the lighting is set up is really, really odd. When you walk into the room there's a bank of four light switches. The first turns on a wall lamp in the main living area. One turns on the entry way light. Two turn on lights in the bathroom. You can't turn on ANY of the lights without having the main living area light turned on. So, until you realize there's an on/off switch on the main living area light, you're going to be lighting up the entire room if you have to use the restroom in the middle of the night.Also, the shower doesn't have a door. It's a huge shower! The shower head half has a floor-to-ceiling "glass" wall. The back half is open. Plus, with a shower that large, there's one, little, corner shelf by the shower head and one, little hook on the back wall. Not very well designed. And, for as new a hotel as this is, the body towel were pretty rough and scratchy. They were large but scratchy. I was expecting something more plush.It's very conveniently located. Lots and lots and lots of shopping and restaurants to choose from in a 12 mile radius. It's about 11-12 miles from the Texas Motor Speedway and about 13-14 miles from AT&amp;T Stadium. There are more...More</t>
   </si>
   <si>
+    <t>webbw0man</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r564288142-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -620,6 +677,9 @@
     <t>Hotel staff were very helpful and friendly. The location was beautiful, clean, and way to get to. The location was perfect for a getaway to Southlake, near shopping, restaurants, and movie theatres. It was a pleasant and beautiful stay! More</t>
   </si>
   <si>
+    <t>vacati0ner46</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r564254240-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -638,6 +698,9 @@
     <t>Bad Management! From front desk to restaurant ! Not sure if this hotel knows how to provide for its guest from running out of plates in the morning to running out of help at night when ordering dinner what a mess food taking forever limited menu and 1 bartender trying to do it all ! No manager in sight will never stay again!More</t>
   </si>
   <si>
+    <t>Karen O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r561261426-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -662,6 +725,9 @@
     <t>Check in was easy and smooth. My reservation was duplicated due to no error of mine but that was handled efficiently and refunded. Room was beautiful and staff friendly. I give it a 4 instead of 5 because you have to go to front desk yourself if you need anything as front desk told me they don't have enough staff to bring things up. They also didn't have lotion and shower hats which was an inconvenience. Overall, a great experience and value for bucks.More</t>
   </si>
   <si>
+    <t>O N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r560796409-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -680,6 +746,9 @@
     <t>My girlfriend and I stayed at this hotel over Valentines Day and had a great experience. Checked in early. Free shuttle to Town Square to dinner. The bed linens are fabulous. Sexy and clean!The staff is friendly and professionals! Top rated hotel!More</t>
   </si>
   <si>
+    <t>Carol S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r560300627-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -704,6 +773,9 @@
     <t>This hotel is so fun because the modern decor is carried out in such excellent style. The rooms are comfortable and the beds and linens are top quality. The outdoor space is neat with a long fire pit with chairs for good intimate conversation. The pool and game area is a nice addition. The hotel staff was helpful and attentive.More</t>
   </si>
   <si>
+    <t>travelwithpoodle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r559871714-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -728,6 +800,9 @@
     <t>This hotel is brand new and offers everything you need for your stay. While it lacked character, the lobby had a good buzz and the food options were appreciated. The rooms were functional and just a little spartan. Several lightbulbs were burnt out and were replaced immediately. Easy access off highway but you need a car for dinner options.More</t>
   </si>
   <si>
+    <t>christanjason</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r558922719-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -752,6 +827,9 @@
     <t>Very nice hotel. Great location. Loved the rooms. The hotel  atmosphere was wonderful. 5 starts from our family. We will definitely be back to stay. Husband loved the pool area with the fireplaces. Very nice touch.More</t>
   </si>
   <si>
+    <t>narmeenpirani</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r555310462-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -776,6 +854,9 @@
     <t>The staff were extremely pleasant and helpful. Spacious rooms and clean . A variety for breakfast would have been beneficial . Too cold to use the pool. Nice decor ! Overall Highly recommend this hotel More</t>
   </si>
   <si>
+    <t>Foxxx626</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r549360298-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -803,6 +884,9 @@
     <t>Quick biz stay here and was pleasently surprised.Large roomModernComfortable bedsOodles of pillows (soft, med, hard)adequate outletscomfortable temperaturesuper cleanIron, Fridge, deskShuttle to drop me off at my office BarrestaurantBreakfast was overpriced IMO and I don't believe the eggs are real..... but other than that, no complaints.More</t>
   </si>
   <si>
+    <t>travels4jen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r547903654-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -827,6 +911,9 @@
     <t>I usually stay at a different hotel while in the area on business but thought I'd give Cambria a try since it's fairly new.  I was able to check in early morning to a nice room that was spacious, comfortable, and very clean.  The shuttle was also a nice convenience, and the dinner I had one evening in their lounge was delicious.  I received friendly service from everyone working at the hotel, and I would not hesitate to stay here again.More</t>
   </si>
   <si>
+    <t>Tom D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r546475107-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -851,6 +938,9 @@
     <t>3 day trip with business meetings onsite.  Hotel is in a good location, close to DFW and plenty of restaurants close by.  This facility is modern and kept clean. There are several different sized meeting rooms, that work well for a variety of clientele. There is no restaurant onsite, although they serve a meager breakfast.  The bar is off the lobby area in the open, a although not a large selection of beer and spirits, they are of good quality.If you are a coffee drinker this could cause a problem, there is a couple pots available through mid morning, but out of luck after that.More</t>
   </si>
   <si>
+    <t>amberoler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r545779991-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -875,6 +965,9 @@
     <t>This place is beautiful! Very clean, staff is curtious, rooms are quiet and no issues at all. I really love the sette/coffee nook too. I will be making this my go to hotel for all my Dallas area travel moving forward. More</t>
   </si>
   <si>
+    <t>Karen A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r544389269-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -902,6 +995,9 @@
     <t>I normally stay in grapevine when visiting but this wasn't too far off so decided to try it. WOW. Great place, great food, excellent staff!  It's pretty upscale for the Choice group (breakfast is not free here), beautiful property. My only complaint was they had booked both nights of my stay MANY buses of HS kids. The usual running around, up and down the elevators. I slept well though. More</t>
   </si>
   <si>
+    <t>Donita C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r540965869-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -926,6 +1022,9 @@
     <t>We are staying two nights here in Southlake, Tx.  We are seeing a great Dr. At Spine Team Texas. They had this hotel on their list for close hotels.  We are very pleased with this choice. There are a LOT of places to shop and eat.More</t>
   </si>
   <si>
+    <t>mrich1205</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r540158021-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -950,6 +1049,9 @@
     <t>A big surprise awaits when you walk through the doors. Very modern and fun atmosphere. This is a small affordable chain hotel??? Wait this is a nice simi upscale property that can’t be overlooked.  We stayed in the tower suite and the room was large and very comfortable. The master bedroom was  beautiful and very tastefully decorated with wall to wall windows. The bathroom was very upscale  with a huge subway tile shower made for 4 people.  A large glass partition separated the shower from the vanity area. The vanity mirror was led lit from behind.  The living area was small and needs a few pictures. They focused on the bedroom and it’s worth it.   Overall a great experience and a great getaway hotel. More</t>
   </si>
   <si>
+    <t>ssmoore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r537703819-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -977,6 +1079,9 @@
     <t>I enjoyed my stay at Cambria while in town for work. The location was great and the hotel was modern and clean. The room was big, the bed was comfy. I have no complaints. Loved that they had happy hour specials at the bar. Beware that if catching Uber from the hotel, the driver may have trouble locating you.More</t>
   </si>
   <si>
+    <t>rstruempf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r536956102-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1001,6 +1106,9 @@
     <t>This is a wonderful place to stay.  The staff are friendly, the building up scale, large rooms, pool, workout room, bar and restaurant, and free breakfast.  My favorite part is the large assortment of pillows of different styles that make it easy to find a comfortable set.  Their food and drinks are a bit pricey, but I have no complaints about the food itself.More</t>
   </si>
   <si>
+    <t>kalphbeir</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r534861637-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1025,6 +1133,9 @@
     <t>The rooms I went into were spacious and stylistic.  Pillows were very soft and the beds were roomy and comfortable.The shower was definitely the best part.The only potentially subject area was the music in the lobby, which could be a little loud.More</t>
   </si>
   <si>
+    <t>Aimster03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r534443205-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1049,6 +1160,9 @@
     <t>I stayed for 4 nights, Friday through Tuesday, and was very happy with the hotel staff, rooms, amenities and location.  The hotel has been open for about a year and is in excellence condition. I had a king suite on the 3rd floor the bed was very comfortable, the room is well furnished with plenty of charging stations and plugs.  The rates were very fair. I was in Southlake to visit with a friend who lived near by and would recommend this hotel to tourists and business travelers.  I will definitely be back to on my next trip to Southlake.More</t>
   </si>
   <si>
+    <t>petitbidou</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r533645648-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1073,6 +1187,9 @@
     <t>Modern hotel 25 min from Dallas airport. Beautiful room, great honesty bar with loads of snacks (including ice cream) in the lobby, bar with good cocktails, small pool and nice outside area. Loved the gym too, small but had everything I needed including TRX and even a battle rope.Very nice &amp; helpful staff, special mention to Greg at breakfast and our shuttle drivers.Buffet breakfast was simple but nice and had fresh fruits. Just make sure to replenish often. Shuttle will take you anywhere as long as it's local so you can try the many restaurants in Southlake town centre.Would definitely stay there again!More</t>
   </si>
   <si>
+    <t>cindyraedahl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r531716128-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1097,6 +1214,9 @@
     <t>I'm so happy to discover Cambria. It's modern, clean, and central to everything. The beds are comfortable and checkout is noon. That extra hour is lovely. I will definitely remember Cambria when we return to Dallas!More</t>
   </si>
   <si>
+    <t>Tiff80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r530545347-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1121,6 +1241,9 @@
     <t>Check-in was some what smooth. They staff didn't great us and didn't really talk to us other then getting info when checking us in. The hotel is very nice and new. The rooms are large and it had a lot of cool features. The bed was so comfortable. The bathroom was so modern. We will for sure be staying at this hotel again! More</t>
   </si>
   <si>
+    <t>Respa55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r530538531-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1136,6 +1259,9 @@
     <t>I was 100% satisfied.  Everyone was nice and professional.  The room was clean and new.  I would highly recommend!!!!  My room was the suite.  It had a great view, and I felt like a millionaire.   The breakfast was awesome.More</t>
   </si>
   <si>
+    <t>josefernandfranco</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r530536238-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1152,6 +1278,9 @@
   </si>
   <si>
     <t>Lucky to have found this hotel on a layover near the airport on a previous trip. It has become my goto hotel when I'm staying in the area. Rooms are clean, modern and comfortable, with probably the best hotel bed I've experienced. Staff is extremely friendly and helpful, breakfast is a good deal for the quality and happy hour is a good way to unwind after long days of work. More</t>
+  </si>
+  <si>
+    <t>Ben R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r530330191-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
@@ -1178,6 +1307,9 @@
 *The only reason I'm not giving it a 5 star rating* is the bathrooms.  Here's where things were definitely left desiring.  First off - unfortunately - if you are traveling with someone who's not close like family or something like that, you may want to take a pass on this hotel.  If you like your privacy when it comes to the bathroom - and most people do - this place may not be for you.  THERE'S NOT REALLY A DOOR ON THE BATHROOM... at least not like you're used to seeing.  It's a "barn style" PANEL that slides in front of the bathroom opening.  When you close the "door"...This was a nice hotel for the price.  As of right now (Oct 2017), it seems to have been built recently and most everything doesn't seem "used"... that was nice.  Lobby and restaurant/bar area has a very welcoming and social atmosphere.  The pool is not big but I didn't think that was a problem.  The trade off is all the other neat stuff outside to hang out - the bags area, the fire pit, the little couch things on the side of the pool - all of it made the outside area by the pool VERY inviting.Check in and check out were average.  Not SUPER quick, but certainly not taking forever.The rooms were nice as well.  Nice modern decor that was functional as well.  Big TV.  Beds were comfortable.*The only reason I'm not giving it a 5 star rating* is the bathrooms.  Here's where things were definitely left desiring.  First off - unfortunately - if you are traveling with someone who's not close like family or something like that, you may want to take a pass on this hotel.  If you like your privacy when it comes to the bathroom - and most people do - this place may not be for you.  THERE'S NOT REALLY A DOOR ON THE BATHROOM... at least not like you're used to seeing.  It's a "barn style" PANEL that slides in front of the bathroom opening.  When you close the "door" there's still a quarter to half inch of space OPEN on the sides between the door and the wall (it's not REALLY closed)!!  Plus, IT HAS WINDOWS - granted these windows are treated with the "frost" stuff so you can't see really what's inside.  But 1) light streams through so if someone else is trying to sleep out in the room, light is pouring out of the bathroom, and 2) again, if you're traveling with a coworker or someone you're not family with or whatever, you can still make out movement and stuff on the inside.  So while you can't see your naked friend standing there clearly, if you're headed by the bathroom you could still see THAT they are getting out of the shower.  This could be very weird for a business trip or something of the like.Also, there was ONE hook to hang towels on the wall.  One.  There was a towel bar below the vanity, but you had to be pretty strategic not to get your towel dragging on the bathroom floor (yuck).  This seems like an easy fix... just install one or two more.In conclusion, the hotel is quite nice for the price point and I'd recommend it... but *IF* you like privacy when it comes to the bathroom (and MOST people do), you may find staying at this hotel with...More</t>
   </si>
   <si>
+    <t>Boricua1926</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r529198745-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1205,6 +1337,9 @@
     <t>Very nice hotel, especially for the price.  Room was clean and comfortable.  The gentleman at the front desk was great.  Pool area and gym were very nice.  Good safe location.  Will definitely stay here again.More</t>
   </si>
   <si>
+    <t>Jimmy J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r527904386-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1226,6 +1361,9 @@
     <t>We stayed here for one night in September. It was great, the room was huge and very spacious. We arrived around midnight and were warmly welcomed. Nice modern design, had a walk in shower that was spacious. The room was well appointed. We chose to stay here to be near a friend we were meeting the next day. Has a full bar that was closed when we arrived but looked nice. I would highly recommend this hotel if it is located in the area you want to be in.More</t>
   </si>
   <si>
+    <t>adamdfw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r527587138-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1250,6 +1388,9 @@
     <t>Mobilizing linemen , heavy machine  operators,etc to take on a task like flood/hurricane relief for the people affected in Houston can be daunting .Upon check in at cambria in southlake Ivy was informed capable and happy to help in less than ten mins Ivy was able to get our rooms wifi info and layout of the building . By the time I got up to my room I was settled enough to get straight to work . More</t>
   </si>
   <si>
+    <t>Vegas_Gar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r525553718-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1274,6 +1415,9 @@
     <t>What a great place to stay. It's not cheap, but it's totally worth it. We stayed in a room with 2 queen beds and they were comfy. The room was big enough and quite cozy. The bathroom was really nice with a huge shower. The shower was a big walk in type of shower with no door. It was one of those half glass walls covering half of the shower. It's kind of weird and water tends to splash at the entrance of the shower, but just put the floor towel down and you will be fine (see my video of the shower). Overall, a very nice stay and experience. The front desk people were very nice and the lobby seems pretty swanky. Would opt to stay again if I had the extra $$More</t>
   </si>
   <si>
+    <t>Jyssica S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r525408815-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1289,6 +1433,9 @@
     <t>We stayed here over a weekend and the hotel was very quiet. We didn't hear any of our neighbors. Our room was on the top floor so that helped with the noise. The hotel is quite large and it was a bit of a maze to reach out room. The room was large with a regular size sofa bed. We had a King Room suite. The bathroom was large and modern but only had a shower. The room was quite nice but we had a maintenance issue while we were there.  We came back to the room and a few spots pf carpet in different areas of were drenched. We aren't really sure what happened but was off   putting and concerning since the hotel is fairly new.  The location is fairly isolated but a short drive to shopping and restaurants. There did not appear to be anywhere you could just walk to, Staff was helpful and friendly. The parking lot was large and ample.More</t>
   </si>
   <si>
+    <t>Cliff T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r524392589-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1316,6 +1463,9 @@
     <t>Wife and I wanted a local getaway and we found this hidden gem. Supper friendly staff and excellent facility. The property is close to everything you will want to do and only 10 minutes from the DFW airport.More</t>
   </si>
   <si>
+    <t>Ran41</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r522082638-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1343,6 +1493,9 @@
     <t>I stayed at this hotel for two weeks.  It was very clean, great bed &amp; pillows.  The staff was so nice every time we needed somethin.  Happy hour food menu which had good $5.00 items to pick from to eat. I even called after I stayed to find out what the coffee was in the room because it was so good.  And shuttle service to anywhere within 5 miles of hotelMore</t>
   </si>
   <si>
+    <t>MYDDB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r521235244-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1367,6 +1520,9 @@
     <t>I stayed at this hotel with my family for over a week due to Harvey. Very new and modern hotel with wonderful staff.  Terri went above and beyond to fix an issue we had the first night and made the rest of our stay exceptional.More</t>
   </si>
   <si>
+    <t>Michael L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r521080790-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1385,6 +1541,9 @@
     <t>Stayed one night before flying out of DFW!! Arrived after 11pm no problem checking in. Very clean rooms a huge shower. We did go somewhere else to eat breakfast the next morning because buffet was 15.00 a little much for breakfast. More</t>
   </si>
   <si>
+    <t>Sleigh4You</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r520314156-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1400,6 +1559,9 @@
     <t>Hotel is very clean. Staff was also helpful. The bathroom is superior. The gym was nice compared to the average hotel gym. I never had the breakfast but it looked good! The mattress was hard but other than that everything was nice. Plus the area is really nice.</t>
   </si>
   <si>
+    <t>Jeanniene</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r512063350-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1415,6 +1577,9 @@
     <t>My husband and I have stayed at this property numerous times, and on every occasion we have experienced "excellence in customer service."  The overall staff is AWESOME!!!  They have gone above and beyond to accommodate our request and have done it with excellence in customer service.  The property is conveniently located to DFW and directly off of Hwy 114, which is less than 10 minutes from DFW.  I would highly recommend this property for personal or business purposes.</t>
   </si>
   <si>
+    <t>Luke H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r511168328-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1430,6 +1595,9 @@
     <t>This place was over the top !!! Came in town for a conference and was blown away !! The women that checked me in was Amazing!! Her name was Terri , and I am pumped to come back !!! The burger I ate in the bar was HUGE and the fries were yummy too !!! I also got choice rewards for staying here too !!!!Two big thumbs up !!!!!</t>
   </si>
   <si>
+    <t>CarolTaylor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r510097029-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1448,6 +1616,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>joerosario514</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r509407595-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1472,6 +1643,9 @@
     <t>The hotel is beautiful inside and out. The front desk employees were friendly and helpful.  The room was spacious, clean, cozy, and overall beautiful. The pool was also clean and enjoyable.  I would definetly recommend to family and friends.  More</t>
   </si>
   <si>
+    <t>Becky D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r508125066-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1496,6 +1670,9 @@
     <t>I highly recommend this hotel for business or family travel. This hotel is beautiful! From the huge room w/large TV with access to Netflix, Youtube, etc. accounts, lots of USB ports &amp; gorgeous HUGE glass shower w/Bath &amp; Body Works soaps &amp; shampoo, to the fabulous poolside cabanas &amp; giant size Jenga game in the play area, to the amazing fire pit, to the craft beer &amp; glorious, fresh breakfast buffet... It's simply awesome. Every aspect was top quaity!! Enjoyed my stay very, very much. Super friendly &amp; professional staff, great amenities &amp; excellent location. 5+ Stars! I'll be back!!More</t>
   </si>
   <si>
+    <t>California-Cindy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r502661313-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1511,6 +1688,9 @@
     <t>Went here for a weekend with my son who is moving to Texas for a new job. We accidentally left a very expensive head-set in an opened room safe. My son was sure that they were gone for good. These wonderful people found them and are returning them to him.Good price. Nice modern atmosphere. Especially great people working there.</t>
   </si>
   <si>
+    <t>Ale4356</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r502485964-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1523,6 +1703,9 @@
     <t xml:space="preserve">This is a new hotel, so everything is well kept and new. The room was spacious and super clean. The hotel is conveniently located.  Everybody was nice and helpful. I will definitely stay there again my next time in Grapevine. </t>
   </si>
   <si>
+    <t>527Pamela</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r501611157-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1538,6 +1721,9 @@
     <t xml:space="preserve">Beautiful hotel with all the amenities! The staff was wonderful and went above and beyond to make our stay relaxing! The room was so very spacious and much  more than we were expecting. The beds are liking sleeping on air! </t>
   </si>
   <si>
+    <t>Kathy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r500504661-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1553,6 +1739,9 @@
     <t>This was undoubtedly the nicest hotel I've ever stayed in.  The room was awesome with everything in it you would ever need including free wi-fi.  The pool was nice and it had a great place with artificial turf with games, etc. for the kiddos.  There was a beautiful fire-pit and cabanas out by the pool.  It was all in all a wonderful experience.</t>
   </si>
   <si>
+    <t>kirk356</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r496526406-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1568,6 +1757,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>appraiser1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r494889189-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1586,6 +1778,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>rfvela3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r491954647-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1601,6 +1796,9 @@
     <t>Here on a weekend getaway. This place is great. No complaints at all. Kelli is great! Staff is friendly! Bar is AWESOME!!! Wouldn't change a thing. Pool and play area was great for the kids. Breakfast was very good!</t>
   </si>
   <si>
+    <t>jmckphil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r490705668-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1616,6 +1814,9 @@
     <t>Not a destination hotel but very adequate for a couple of nights.  Corner room was large, bed was very comfortable.  Shower somewhat spartan but consistent with modern decor.  Didn't try the restaurant--there are plenty of other eating choices nearby.</t>
   </si>
   <si>
+    <t>Cownsheep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r490346876-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1634,6 +1835,9 @@
     <t>We stayed for 4 nights while we were moving my mother out of her house.  What I loved about Cambria was:  1.  It's location - so close to Southlake and the shopping and restaurants that we never needed to go very far to eat or pick up something.  2.  The size of the rooms.  We had a lot of luggage for 2 people (4 cart loads) and every fit away from the floor space so that we could easily move around.  Even the bathroom space for 2 people was really good.  You need to be smart and use the space under the counter for some stuff so the countertop doesn't get overly crowded.  3.  The bar and restaurant and the space to play cards.  My family and I are big card players so we were happy to be able to sit and play cards and I could get a Talisker 10 to sip while I played.  There aren't many places you can do that at this price!  4.  The air-conditioning unit has a  continuous fan function so you can have "white noise" in the background if you want to.  It was so effective that on Saturday night when there was a party in the conference room, we couldn't hear the music at all when we turned it on.  5.  The hook at the doorway with the little ledge above it.  Great for a purse, coat, or whatever you need to...We stayed for 4 nights while we were moving my mother out of her house.  What I loved about Cambria was:  1.  It's location - so close to Southlake and the shopping and restaurants that we never needed to go very far to eat or pick up something.  2.  The size of the rooms.  We had a lot of luggage for 2 people (4 cart loads) and every fit away from the floor space so that we could easily move around.  Even the bathroom space for 2 people was really good.  You need to be smart and use the space under the counter for some stuff so the countertop doesn't get overly crowded.  3.  The bar and restaurant and the space to play cards.  My family and I are big card players so we were happy to be able to sit and play cards and I could get a Talisker 10 to sip while I played.  There aren't many places you can do that at this price!  4.  The air-conditioning unit has a  continuous fan function so you can have "white noise" in the background if you want to.  It was so effective that on Saturday night when there was a party in the conference room, we couldn't hear the music at all when we turned it on.  5.  The hook at the doorway with the little ledge above it.  Great for a purse, coat, or whatever you need to hand and your keys or sunglasses.  The whole design was very clever.  Things I didn't enjoy so much:  1.  The fan in the bathroom isn't powerful enough to clear the steam so you have to open the door fully and wait until the mirror clears.  I found this slightly annoying.  2.  The have air-condition seemed to have a mind of it's own and our room, at times, seemed quite humid.     3.  The door to the bathroom slides and ours was a little sticky.  For my mother who is 77, it was a little too heavy to push and pull.  Overall our stay was really great.  We are returning in a week and look forward to it.More</t>
   </si>
   <si>
+    <t>U6012WLdeborahb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r489177361-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1649,6 +1853,9 @@
     <t xml:space="preserve">The Rooms are very nice. Beds were comfortable. It was very clean. The lobby was very nice. The hotel was very easy to get to. We Used the  shuttle service and the drivers were very nice. There is no complimentary breakfast but the restaurant was a nice area. </t>
   </si>
   <si>
+    <t>ajb222</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r489137741-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1661,6 +1868,9 @@
     <t xml:space="preserve">A couple of hooks for robes/clothing would help tremendously. More counter space would be a big improvement. Need someplace to put towels beside the sink top where they  get wet before they are used. Tiles in handicap shower are slippery when wet. </t>
   </si>
   <si>
+    <t>tamiw919</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r488482383-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1676,6 +1886,9 @@
     <t>Very nice place. Staff was excellent! Room was very clean and comfortable. Plenty of pillows. Very comfortable bed. Very close to a lot of places to dine or shop. Easy access right of 114. Will definitely stay again!</t>
   </si>
   <si>
+    <t>lenorakrugle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r486131225-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1689,6 +1902,9 @@
   </si>
   <si>
     <t xml:space="preserve">Came to Southlake for a weekend get away. Staff was so warm and friendly. Hotel was beautiful and has amazing designs. The platform beds are so comfortable. The hotel is so well built that you cannot hear any outside noise, which is wonderfull for the big city. </t>
+  </si>
+  <si>
+    <t>mickeywu</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r485408220-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
@@ -1727,6 +1943,9 @@
 3)  Bar -- we went to the bar for the "buy one/get one free" drink special.  Bartender seemed very frazzled and unfriendly.  He seemed to be the only person working there.  Our drinks took at least 30 minutes to arrive at our table.  We asked for pretzel pops and it took forever to get...Well, this  is the second time we've stayed here since it opened in December.  The first experience was fairly good.  And it was gorgeous because it was beautifully decorated for the holidays.This time, there were many issues.  I will list the good and the bad.Good:1)  Beautiful hotel, modern and clean2)  Nice pool3)  Friendly staffBad:1)  Took half an hour to check in; people were waiting in front and behind us in line with only one person working the desk, who seemed to be having a problem.  She should have called for help.  Everyone was very frustrated.2)  Housekeeper never filled tea bags.  I drink tea instead of coffee.  We were there for 6 days; I kept writing her a note asking for the tea bags and she never left them.  I said something to the girl at the front desk one day and her response was, "Some of them can't read English." But the staff never offered to supply us with more tea!! We left the housekeeper a generous tip every day, so I would have thought she would care.3)  Bar -- we went to the bar for the "buy one/get one free" drink special.  Bartender seemed very frazzled and unfriendly.  He seemed to be the only person working there.  Our drinks took at least 30 minutes to arrive at our table.  We asked for pretzel pops and it took forever to get them.  They were terribly overpriced, just tiny pretzel bites with a little cheese.  Ridiculous!  4)  The wooden bed frame is longer than the mattress and it's very easy to hit your leg on the frame, which HURTS!  Poor design.  The beds are very uncomfortable, with crummy blankets. Very cheap.5)  There is no breakfast included in the price of the hotel.  So, although we feel like we're getting a good rate compared to some of the other hotels, we're really not because we have to figure in the cost of breakfast at a restaurant.  6)  We decided to pay for their restaurant breakfast one day.  They definitely have a problem with enough staff in their breakfast/bar area. Not impressed.  Poor service; not good quality breakfast.7)  There is no safety bar in the shower.  The shower door only goes over halfway and is completely open for the other half,  so the bathroom floor gets very wet.  Since you only half a skimpy bathmat, someone could very easily fall.  So much for modern if it's not safe.8)  Many things in the room look nice now, but are made very cheaply.  It won't take long for them to deteriorate.  9)  The plugs are a huge problem.  They have a nice little table...More</t>
   </si>
   <si>
+    <t>Kelli M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r484236995-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1742,6 +1961,9 @@
     <t xml:space="preserve">Really enjoy this hotel. Ask for Kelli. She's outstanding. All the front desk staff are amazing.  The hotel is quite, cozy and roomy. So elegant, haven't had the chance to check out the pool, maybe later this summer. It's beautiful </t>
   </si>
   <si>
+    <t>Jay P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r483654169-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1757,6 +1979,9 @@
     <t xml:space="preserve">We live local stayed at The Cambria for a night away. Brand new hotel super clean. Service was great. Cons: Door to bathroom was on a track and wouldn't stay closed. Our room was on the 2nd floor and in addition to the pool we saw trashcans. </t>
   </si>
   <si>
+    <t>candaceholmes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r483433656-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1772,6 +1997,9 @@
     <t>Fast and friendly check-in, great parking, clean &amp; quiet room. I would recommend this hotel. It was in a great neighborhood close to Grapevine. Very friendly staff. The bed was extremely comfortable and clean!</t>
   </si>
   <si>
+    <t>JackTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r483430968-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1787,6 +2015,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>remgonz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r482505330-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1802,6 +2033,9 @@
     <t>This hotel is fairly new the staff was great and the rooms are big and roomy,   The only down side is no breakfast they have a restaurant you can order but, of course it's extra.  But, other than the no breakfast it was a great stay!!!</t>
   </si>
   <si>
+    <t>mjlatham11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r482357629-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1814,6 +2048,9 @@
     <t xml:space="preserve">We had a great time!! Everything thing was great. The rooms were super clean and decorated very well. Kids had a great time at the pool!!  The bar was great as well as the chicken wings that we ate. The staff was very nice and helpful. </t>
   </si>
   <si>
+    <t>NeilRuss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r481856592-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1827,6 +2064,9 @@
   </si>
   <si>
     <t>The staff was very friendly,  especially Kourtney at the front desk and James in the restaurant.  Beds are very comfortable.  Very modern and lovely room.  I will have to travel for business in June as well so I will be coming back to the Cambria!</t>
+  </si>
+  <si>
+    <t>texasbrian</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r478831255-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
@@ -1865,6 +2105,9 @@
 (1) Not the hotel's fault, but because it's so new, it's a but isolated. You will need a car. Period. The only truly walkable restaurant is a fried chicken joint, separated from the parking lot by a ravine (!). Meanwhile, on the other side of...This is such an awesome hotel, that, being the hotel snob that I am, I questioned whether it was really part of the CHoice Hotels group.It's new construction (December 2016), so it still has that modern feel to everything. Check-in was interesting — I was asked to sit while they checked me in, which was unusual. I got a quick lay of the land, including their firepit! Free (decently fast) wifi abounds.The room, although not a true suite, is a nice, up-to-date oasis. It's got a very modern feel with funky-yet-fucntional furniture (long desk, corner sofa, minifridge!)  Welcome to your huge flat panel TV.It's still got a budget feel to some of the tech, though: The TV/connection setup is pretty basic (no HDMI connections, etc)... there are outlets and USB ports all over, although the ones near the bed that are attached to the alarm clock feel as shabby as a dollar store purchase (I thought I was going to break the clock plugging in).The bed is nice and comfy, the shower is modern (there's that word again!) and the bathroom feels very euro with its fixtures.The two downsides here:(1) Not the hotel's fault, but because it's so new, it's a but isolated. You will need a car. Period. The only truly walkable restaurant is a fried chicken joint, separated from the parking lot by a ravine (!). Meanwhile, on the other side of the freeway is an entire shopping center with about 4,000 restaurants. You could hike over there, but it's just far enough away (and across a freeway) to be unpleasant. Over time, the services situation will improve.(2) The breakfast service at the restaurant was horrible. There was a buffet for $15; the buffet had run out of most everything (and this was 7:45 a.m.). There was one piece of sausage and a few dead strips of bacon; there was no orange juice, the yogurt had run out a while back and good luck finding a glass for the only juice left — cranberry. There was only server working, running around doing her best, but she was clearly overwhelmed. She never came back for me to pay so I had to hunt her down to pay. This wasn't her fault, but it gave a really bad impression of the restaurant management.It's a blemish on an otherwise nice place! Next time I'm in the area, I'll stay here! I'll just drive to breakfast ;-)More</t>
   </si>
   <si>
+    <t>MLyon15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r477726099-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1883,6 +2126,9 @@
     <t>Great experience for my first stay with Cambria.  Rooms are amazing, the staff was super friendly and the whole atmosphere of the hotel is great.  Really like the coaster BOGO you provide for the bar...cool idea.  The fitness room has top of the line equipment as well.  Too cool outside for the pool but it too looked great.  Will definitely recommend business travelers or families to stay here!More</t>
   </si>
   <si>
+    <t>JMMtx1960</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r477592620-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1901,6 +2147,9 @@
     <t>Attended a meeting here and stayed one night.   Property has only been open for a short time,  so it has that new hotel feel.   My room had an abundance of both power and USB outlets; I counted 9 usb outlets on the bedside tables (in wall lamps and alarm clock), desk,  and shelf above fridge.   Bathroom had walk in doorless shower and lots of tile.   Extremely comfortable bed with 6 pillows,  three soft and firm.   Room seating was a little shaped couch that seemed a bit uncomfortable to relax on,  and a non-wheeled chair at the desk. Facility has a nice exercise room and pool with shaded lounges.   Only negative for the shy is the pool is right off the on site bar restaurant so evening swimmers could have an audience Meeting rooms are very nice,  most have door access to the outside and close restroom access.   Service for our group was excellent with a very attentive host. Overall no issues,  location is good and it was a great location for our meeting. More</t>
   </si>
   <si>
+    <t>izzy870</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r477442091-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1916,6 +2165,9 @@
     <t>I stayed one night, the hotel is new, very clean and the staff is very helpful and curtious. Will I stay again yes!!!!5 outta 5 stars from me.Breakfast was excellent, Very modern and up to date. Even have Netflix on the tv. Couldn't get any better than that.More</t>
   </si>
   <si>
+    <t>Mpaul86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r475815523-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1940,6 +2192,9 @@
     <t>I stayed here for 5 days after recovering from a surgery and it was great! Staff is very attentive! Rooms large and very nice. TV has Netflix which was great since I was cooped up in bed the entire time. Overall great experience! More</t>
   </si>
   <si>
+    <t>Robert L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r474337344-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1958,6 +2213,9 @@
     <t>Check in was very smooth with two free drink vouchers (which were really very nice coasters that you get to keep). We grabbed a few drinks at the bar, and the bar was just fine.Got a good night sleep, bed and room was very comfortable. In room 313 we had a view of the pool and construction going on next door.Overall very nice place to stay, but I have a couple suggestions.....1) On Sat. evening (2nd night of our stay) My wife and I are in our room sitting on the sofa, and I pull out two pairs of womans panties from under the stacked pillows in the room. They were lovely but we didn't keep them. So apparently the maid missed them and we wish we had too. 2) Breakfast....not so super. No hot water to make tea. No Iced tea available, wait staff tried to give me Snapple Bottled Ice Tea instead. It seemed the wait staff had no clue, so probably just new folks learning.....not a big deal.Overall a nice stay for us race car fans, and we will definitely consider staying againMore</t>
   </si>
   <si>
+    <t>tuli763</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r474195762-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1973,6 +2231,9 @@
     <t>Very friendly staff, very clean hotel.  Fun decor.  Chaise in corner of room was fun, and would work great for a family who needed an extra bed. Strong Wi-fi.  Nice, but small outdoor pool, and a great workout room - better than most hotels.   For a newer place I was a bit surprised - the bathroom door looked like it had been scratched up/bitten/broken off in a spot; the toilet had flushing problems in our room;  and the sliding bathroom door, while modern, didn't stay closed all the way - it always slid back a few inches after you closed it.  Overall a pleasant stay.  While we were there we were awoken to a tornado warning.....went downstairs and the overnight gal had no idea what to do!   Would definitely stay again, expecially for the price!More</t>
   </si>
   <si>
+    <t>buentingBP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r473959713-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -1991,6 +2252,9 @@
     <t>This place is great. From the nice hospitality we received from the time we checked in to the check out. The only down fall we had was in the lounge. We stopped to have a drink while thinking about dinner and ordered two margaritas. Let's just say it's hard to get a good one these days. So we went ahead and had dinner and thought we would try one more time. We ordered their Apple drink and their Cantaloupe drink and the apple drink was so nasty it was un drinkable. Everything else was great about this place and will definitely stay there again. More</t>
   </si>
   <si>
+    <t>a65j436</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r473671634-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2009,6 +2273,9 @@
     <t>I highly recommend this hotel.  Nice location.  One of the nicest and cleanest hotels I have stayed in.  I highly recommend.   Bed were very comfortable.  Priced reasonable for the area.  Free parking and internet.  More</t>
   </si>
   <si>
+    <t>naynaynurse</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r473621530-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2022,6 +2289,9 @@
   </si>
   <si>
     <t>We booked online, had 2 special requests which were accommodated with no questions. After a 4 hr drive it was nice to have no worries!The staff is very courteous and friendly. Thank you Cambria!The LogansMore</t>
+  </si>
+  <si>
+    <t>wrktravelr</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r472891690-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
@@ -2044,6 +2314,9 @@
 Next, in this suite, there was the two walls of windows -almost floor to ceiling,... the curtains were all the way open -to the side, so when these curtains were pulled closed, passing behind the television on it's credenza, the television power cords were unplugged from the inadequate electrical outlet, which is behind the television.... this is a matter of aesthetics again: someone thinks that it is more aesthetically pleasing to have the curtains all the way to the side, and honestly aesthetics don't matter when it causes the television to be non-functional.  (we wanted to listen to music from...This is a very new hotel, so it is quite nice.  Certainly it is very clean.  The bathrooms, however, are lacking some basics.. for example there is no towel bar, shelf, or hook of any kind within reach of the walk-in showers, NO PLACE to put a towel or robe within reach.  Only a tiny basket, attached to the wall, very close to the shower head, which can accommodate a small bar of soap and a small bottle of shampoo....not a place for a towel.  Add to that: the bathroom door, slide aside "barn door" style of door -is aesthetically pleasing and completely useless, as it would not stay closed.  The "fix" was to wrap a piece of tape around the rail to keep the door from slipping out of the closed position -so halfway open was not a choice.  Next, in this suite, there was the two walls of windows -almost floor to ceiling,... the curtains were all the way open -to the side, so when these curtains were pulled closed, passing behind the television on it's credenza, the television power cords were unplugged from the inadequate electrical outlet, which is behind the television.... this is a matter of aesthetics again: someone thinks that it is more aesthetically pleasing to have the curtains all the way to the side, and honestly aesthetics don't matter when it causes the television to be non-functional.  (we wanted to listen to music from YouTube)  we had to have maintenance come up to the room at 10:00pm to get the television turned on, and he had to return a second time because it still was not functioning properly.  In the sitting room area there was a lot of bare wall space below the wall-mounted television, and a small refrigerator on the floor -you have to squat down or kneel to use the tiny refrigerator. It felt like something was missing there. Like a table or credenza.Aside from those glaring flaws,,, the towels provided are more than adequate in size- VERY NICE, the bedding is good, furnishings comfortable. The lobby/bar area is spacious, clean, airy, and pleasant, but the wifi was questionable-- just as I got comfortable my device proclaimed "no internet connection".  This happened in my room as well, and once it began there was no getting the internet connection back that day.  That is frustrating, and -as usual- the hotel staff insists that they have an "excellent" wifi network, and you must call the help number for assistance with your device. (my devices work just fine everyplace else I go).A friend also stayed at this hotel and he was...More</t>
   </si>
   <si>
+    <t>jerom832</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r472658489-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2062,6 +2335,9 @@
     <t>Great room &amp; Bathroom was modern and cool! Great lobby area, spacious and staff were very friendly, Bar was stocked with local beers and good wine selection as well. Breakfast was priced fairly and tasty!More</t>
   </si>
   <si>
+    <t>wright08cameron</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r472107982-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2080,6 +2356,9 @@
     <t>Shuttle bus made the trip and the staff was super friendly. Me and my wife are definitely hoping to be returning soon. Great places around to eat and have drinks. Reasonably priced for the area. Blessed!More</t>
   </si>
   <si>
+    <t>angief395</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r470178042-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2101,6 +2380,9 @@
     <t>I stayed at this hotel for a confrence I was attending close by.  This place is great!!!  The staff is supper friendly and helpful!  The room was clean and comfortable!  I used the business center for some work and it was great!  Great stay!!  Highly recommend!!!!!More</t>
   </si>
   <si>
+    <t>Eric C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r468183616-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2119,6 +2401,9 @@
     <t>Very nice rooms very clean. Beds were comfortable and staff very helpful.  Excellant property. Great facilities very quiet and safe area easily accessed from the highway. Lots if excellant resturant choices within one mile of hotel.More</t>
   </si>
   <si>
+    <t>Kim S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r467519170-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2137,6 +2422,9 @@
     <t>This is a nice, new hotel with amenities. That being said, it is extremely noisy. The construction of a new building right behind the hotel begins at daybreak. The walls are super thin and you can hear everything from adjacent rooms; tv, kids, toilet flushing, shower, etc. The first night was quite loud with doors slamming, kids screaming, and loud music. The next morning, we asked to be moved to a different room that "should be much quieter." NOPE! Apparently, Southlake, Texas is a Spring Break party spot for college students (sarcasm implied). Loud music and screaming up and down the hallways was the second night's entertainment. All in all, if you want to rest or sleep, bring earplugs; if you don't mind noise, this is your place.More</t>
   </si>
   <si>
+    <t>cjc997</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r467259831-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2155,6 +2443,9 @@
     <t>Nice new property, spacious and comfortable room, WiFi convenient and strategically placed plugs and charging ports.  All staff have been friendly and helpful.   No free breakfast but the sausage sandwich very tasty.   Would stay again.More</t>
   </si>
   <si>
+    <t>Tyler K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r467052018-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2173,6 +2464,9 @@
     <t>I was supposed to stay down the road at a business class hotel I wouldn't name but am very happy I strayed. This site looks very new and is spotless.  The lobby is very modern with some Texas inspiration. I took several pictures of the walls/light fixtures/rebar walls as inspiration for one of my commercial properties. Very cool!  The room is large and the bed and bedding are great. The subway tiled bathrooms look clean and modern too. TV interface and wifi are both fast and easy to use. Didn't get to try the rest of the facility out but based off what I've seen I'd still stay here again in a heartbeat.Staff was also very nice. Might be a Texas thing may be a Cambria thing but either way it's appreciated.More</t>
   </si>
   <si>
+    <t>Zachary E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r466783567-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2188,6 +2482,9 @@
     <t>The Cambria Southlake is a beautiful and warm hotel with a great location.  The entire staff went above and beyond while on a business trip and the layout of the room is fantastic.  I really enjoyed being able to connect to my Netflix directly on the TV.  While definitely return on my next visit to the area.More</t>
   </si>
   <si>
+    <t>Tim G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r466780154-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2206,6 +2503,9 @@
     <t>This is a brand new hotel.  It is slick and modern with some Texas flair thrown in. Rooms were well appointed.  The lobby and bar were spacious...a real open feel.  Staff was very friendly and the food is a cut above the standard fare offered by similar hotels I have stayed at.  Has all the amenities I needed.  Located only 10 minutes from DFW and there is a large lifestyle nearby.  My only minor complaint is they need a better signage for the entrance as was not obvious where to enter when we first arrived.   Otherwise an enjoyable stay.More</t>
   </si>
   <si>
+    <t>Thomas_M_13684</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r466773043-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2221,6 +2521,9 @@
     <t>I stayed at this new Cambria hotel for a 2 day business meeting. Quite and upscale property, full service with all the amenities you would need. The meeting space is great the lobby/restaurant space flows very well. The staff in general is great but a mention for food and beverage rock star , Tori and Margarette.More</t>
   </si>
   <si>
+    <t>Paul O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r465519503-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2239,6 +2542,9 @@
     <t>New hotel with style, comfort &amp; warmth....Perfect for my business trip. The folks here really know how to look after you with care &amp; real concern for every request!Rooms are well thought out &amp; beds are firm &amp; comfortable.I will be back ...More</t>
   </si>
   <si>
+    <t>Brianna S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r462516391-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2260,6 +2566,9 @@
     <t>The accommodations were comfortable and clean. We stayed over night while attending a conference. I was thankful to be in an end room, because the room was not very sound proof. The decor was cute and modern. Staff was friendly and attentive. I would recommend not paying in full while booking. We had to prove that we had paid when checking. My husband had to pull up our bank account and show that it had cleared our bank. The lady then questioned us stating that sometimes that doesn't necessarily mean that it had cleared. She was wanting us to giver her another credit card number. I didn't feel comfortable doing this knowing that we had already paid in full. It was just very weird. Other than that our stay was pleasant and very comfortable. More</t>
   </si>
   <si>
+    <t>John S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r462291543-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2278,6 +2587,9 @@
     <t>When I arrived, I knew it was no motel 6.Very nice foyer to be impressed with and the rooms are super nice! This time of year,  I wish the cement pond (pool) was indoors to show off my new swim trunks.[ super sexy]  Overall,  I have enjoyed this place immensely!More</t>
   </si>
   <si>
+    <t>LyndaN8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r462114037-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2296,6 +2608,9 @@
     <t>My husband and I are from the area and stayed here for our honeymoon. The service was wonderful and they even sent up a fruit tray for us. The location is great, right across the highway from Southlake Town Center and many other shops and restaurants in the area. The hotel room is modern and spacious.More</t>
   </si>
   <si>
+    <t>770sam2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r459668557-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2335,6 +2650,9 @@
     <t>We enjoyed our church retreat at this location and the staff did an outstanding job. The meals were all so good. (Perhaps the best brownie I have ever eaten!!)  The rooms were very comfortable, although the walls were a bit thin, as we heard people next door.  The decor is very modern and done so well.  There is an outdoor pool and very cozy fire ‘pit’ to relax outside.  The breakfast buffet was so good and different each morning.  Construction was ongoing, so maybe a room away from that would be helpful when you make your reservation.More</t>
   </si>
   <si>
+    <t>548loris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r455730539-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2350,6 +2668,9 @@
     <t>My daughter and I stayed this past weekend for our birthday girls weekend. The staff was exceptionally friendly and very accommodating. The rooms were nice and room service breakfast was delicious and affordable. We were checked in by Terri and she was a wonderful introduction to our delightful experience! Very accessible to shopping and restaurants. Thank you all for a great stay!More</t>
   </si>
   <si>
+    <t>Polly C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r455727903-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2362,6 +2683,9 @@
     <t>Great place to stay. Everyone is super friendly and helpful.  They want to know your opinion,  how they can make it a better stay for you. I was blown away by the how clean i is.  Spoke with Mr. Cannon to share my opinion,  he was genuinely appreciate to what i thought about the Cambria. I will definitely stat here everytime i come to Tx.</t>
   </si>
   <si>
+    <t>Leadfoot84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r453197413-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2377,6 +2701,9 @@
     <t>There was a slight mix up on the room that I thought I had reserved (My mistake). The staff sprang in to action and immediately corrected it. They worked diligently to make sure that I was completely satisfied. The complete staff is friendly, courteous, devoted to the guests comfort. It was the most pleasant stay I`ve had away from home. 5 stars for the property, food and the staff. This review would not be complete without mentioning a few people that exceeded all expectations.Terri Camp Stevenson.....Front Desk.....5 starsGustavo Martinez.....Director of Housekeeping..... 5 starsGreg....Bistro.....5 starsI highly recommend this hotelTerry Burns</t>
   </si>
   <si>
+    <t>Desiree G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r453066808-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2389,6 +2716,9 @@
     <t>This hotel is perfect and beautiful.The staff was perfect.  The decor is top notch with a Texas flair.Shout out to James the bartender!!This hotel would be good for business or leisure.The meeting space is perfect for small company party or meeting.</t>
   </si>
   <si>
+    <t>erin_lucia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r452378759-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2404,6 +2734,9 @@
     <t>Spacious and clean rooms, lovely staff and I was truly was made to feel welcome!! From the greeting as I entered the lobby to the bartender and room staff! Our group was treated with hospitality excellence and we will be back!!</t>
   </si>
   <si>
+    <t>jmack57</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r451262964-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2428,6 +2761,9 @@
     <t>This hotel is beautiful and for the most part very clean. A few issues they should work on are signage it is not easy to find, bathroom doors are sliding doors that do not close completely and have no locks, blinds need to be wider they do not cover light well. Only other issue was there were 3 containers of leftover food from 2 different restaurants in the mini fridge they looked like they had been there for quite awhile.More</t>
   </si>
   <si>
+    <t>TXmarmar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r450168871-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
   </si>
   <si>
@@ -2489,6 +2825,9 @@
   </si>
   <si>
     <t>As the official third guest of the hotel, I was there on opening day. The Hotel from the outside is beautiful and the landscaping will fill in great. The lobby is beautiful and check-in could not have been better. I had the pleasure of meeting both the GM Sam, and the Assistant GM Ethelyn, both running around trying to get everything finished. I was in town for my birthday and meeting a friend in from England. We had two King rooms, both very nice, well appointed, big screen tv with all the latest apps added in.  The hotel is very modern with large art prints on the guest room floors, the rooms are large and have a great walk-in shower where the knob is located at the entry so you don't have to get hit with cold water, there are enough outlets and USB ports for you and several of your friends to use.. There is an iron and board in the wardrobe and in-room coffee maker, and refrigerator, a microwave is located in the lobby by the convenience area.They have a conference center there and a great restaurant off the lobby, the restaurant seats about 60+ ppl and most of the booths and area around the bar have outlets and USB ports, three of the booths also have small TV. They have a convenience store and a business center for guests.  A large workout room and a nice big...As the official third guest of the hotel, I was there on opening day. The Hotel from the outside is beautiful and the landscaping will fill in great. The lobby is beautiful and check-in could not have been better. I had the pleasure of meeting both the GM Sam, and the Assistant GM Ethelyn, both running around trying to get everything finished. I was in town for my birthday and meeting a friend in from England. We had two King rooms, both very nice, well appointed, big screen tv with all the latest apps added in.  The hotel is very modern with large art prints on the guest room floors, the rooms are large and have a great walk-in shower where the knob is located at the entry so you don't have to get hit with cold water, there are enough outlets and USB ports for you and several of your friends to use.. There is an iron and board in the wardrobe and in-room coffee maker, and refrigerator, a microwave is located in the lobby by the convenience area.They have a conference center there and a great restaurant off the lobby, the restaurant seats about 60+ ppl and most of the booths and area around the bar have outlets and USB ports, three of the booths also have small TV. They have a convenience store and a business center for guests.  A large workout room and a nice big pool add to the great property. I look forward to my next visit.More</t>
+  </si>
+  <si>
+    <t>Virginia H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56693-d10632651-r443618634-Cambria_Hotel_Southlake_DFW_North-Southlake_Texas.html</t>
@@ -3011,43 +3350,47 @@
       <c r="A2" t="n">
         <v>65822</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>123823</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3059,56 +3402,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65822</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>1287</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3124,56 +3471,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65822</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>123824</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3185,56 +3536,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65822</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>123825</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3246,56 +3601,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65822</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>26621</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -3311,56 +3670,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65822</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>123826</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3372,56 +3735,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65822</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>123827</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3437,56 +3804,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65822</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>123828</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3498,56 +3869,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65822</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>123829</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -3565,56 +3940,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65822</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>123830</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3632,56 +4011,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="X11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65822</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>123831</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O12" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3693,56 +4076,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="X12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65822</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>123832</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -3760,56 +4147,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="X13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65822</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>123833</v>
+      </c>
+      <c r="C14" t="s">
+        <v>158</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O14" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3821,56 +4212,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="X14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65822</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>123834</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3882,56 +4277,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="X15" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65822</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>228</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="J16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3943,56 +4342,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="X16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65822</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>123835</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4004,56 +4407,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="X17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65822</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>12473</v>
+      </c>
+      <c r="C18" t="s">
+        <v>192</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -4069,56 +4476,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="X18" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65822</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>2433</v>
+      </c>
+      <c r="C19" t="s">
+        <v>201</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="K19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O19" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -4136,56 +4547,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="X19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="Y19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65822</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>123836</v>
+      </c>
+      <c r="C20" t="s">
+        <v>210</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="J20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="K20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O20" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4197,56 +4612,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="X20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="Y20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65822</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>123837</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4258,56 +4677,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="X21" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="Y21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65822</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>51061</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="O22" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4319,56 +4742,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="X22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="Y22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65822</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>123838</v>
+      </c>
+      <c r="C23" t="s">
+        <v>235</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="J23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="K23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="O23" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4380,56 +4807,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="X23" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="Y23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65822</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>14804</v>
+      </c>
+      <c r="C24" t="s">
+        <v>242</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="L24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="O24" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4441,47 +4872,51 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="X24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="Y24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65822</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>123839</v>
+      </c>
+      <c r="C25" t="s">
+        <v>251</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="J25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="L25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
@@ -4498,56 +4933,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="X25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="Y25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65822</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>123840</v>
+      </c>
+      <c r="C26" t="s">
+        <v>260</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="J26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="K26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="O26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4559,56 +4998,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="X26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="Y26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65822</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>123841</v>
+      </c>
+      <c r="C27" t="s">
+        <v>269</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="J27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="K27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="L27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4620,56 +5063,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="X27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="Y27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65822</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>46950</v>
+      </c>
+      <c r="C28" t="s">
+        <v>278</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="J28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="K28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="L28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="O28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4687,56 +5134,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="X28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="Y28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65822</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>123842</v>
+      </c>
+      <c r="C29" t="s">
+        <v>288</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="J29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="K29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="L29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="O29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4752,47 +5203,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="X29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="Y29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>65822</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>863</v>
+      </c>
+      <c r="C30" t="s">
+        <v>297</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="J30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="K30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="L30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
@@ -4809,56 +5264,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="X30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="Y30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>65822</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>123843</v>
+      </c>
+      <c r="C31" t="s">
+        <v>306</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="J31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="K31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="L31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="O31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4870,56 +5329,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="X31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="Y31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>65822</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>22555</v>
+      </c>
+      <c r="C32" t="s">
+        <v>315</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="J32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="K32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="L32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="O32" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4931,56 +5394,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="X32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="Y32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>65822</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>123844</v>
+      </c>
+      <c r="C33" t="s">
+        <v>325</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="J33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="K33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="L33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4992,56 +5459,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="X33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="Y33" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>65822</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>123845</v>
+      </c>
+      <c r="C34" t="s">
+        <v>334</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="J34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="L34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="O34" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5053,56 +5524,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="X34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="Y34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>65822</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>123846</v>
+      </c>
+      <c r="C35" t="s">
+        <v>343</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="J35" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="K35" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="L35" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="O35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -5118,56 +5593,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="X35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="Y35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>65822</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>123847</v>
+      </c>
+      <c r="C36" t="s">
+        <v>353</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="J36" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="K36" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="L36" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="O36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -5185,56 +5664,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="X36" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="Y36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>65822</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>123848</v>
+      </c>
+      <c r="C37" t="s">
+        <v>362</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="J37" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="K37" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="L37" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="O37" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5246,56 +5729,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="X37" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="Y37" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>65822</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>123849</v>
+      </c>
+      <c r="C38" t="s">
+        <v>371</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="J38" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="K38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="L38" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="O38" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5311,56 +5798,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="X38" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="Y38" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>65822</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>123850</v>
+      </c>
+      <c r="C39" t="s">
+        <v>380</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="J39" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="K39" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="L39" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="O39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5378,56 +5869,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="X39" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="Y39" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>65822</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>123851</v>
+      </c>
+      <c r="C40" t="s">
+        <v>389</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="J40" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="K40" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="L40" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="O40" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5439,56 +5934,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="X40" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="Y40" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>65822</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>123852</v>
+      </c>
+      <c r="C41" t="s">
+        <v>398</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="J41" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="K41" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="L41" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="O41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5500,56 +5999,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="X41" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="Y41" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>65822</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>123853</v>
+      </c>
+      <c r="C42" t="s">
+        <v>407</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="J42" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="K42" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="L42" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="O42" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5561,56 +6064,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="X42" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="Y42" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>65822</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>123854</v>
+      </c>
+      <c r="C43" t="s">
+        <v>413</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="J43" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="K43" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="L43" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="O43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5622,56 +6129,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="X43" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="Y43" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>65822</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>13144</v>
+      </c>
+      <c r="C44" t="s">
+        <v>420</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="J44" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="K44" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="L44" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="O44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5687,56 +6198,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="X44" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="Y44" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>65822</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>123855</v>
+      </c>
+      <c r="C45" t="s">
+        <v>427</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="J45" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="K45" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="L45" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="O45" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5748,56 +6263,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="X45" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="Y45" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>65822</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>76592</v>
+      </c>
+      <c r="C46" t="s">
+        <v>437</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="J46" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="K46" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="L46" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="O46" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -5813,56 +6332,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="X46" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="Y46" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>65822</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>123856</v>
+      </c>
+      <c r="C47" t="s">
+        <v>445</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="J47" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="K47" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="L47" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="O47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5874,56 +6397,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="X47" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="Y47" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>65822</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>123857</v>
+      </c>
+      <c r="C48" t="s">
+        <v>454</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="J48" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="K48" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="L48" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="O48" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5941,56 +6468,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="X48" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="Y48" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>65822</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>123858</v>
+      </c>
+      <c r="C49" t="s">
+        <v>463</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="J49" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="K49" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="L49" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="O49" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6002,56 +6533,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="X49" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="Y49" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>65822</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>123859</v>
+      </c>
+      <c r="C50" t="s">
+        <v>469</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="J50" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="K50" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="L50" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -6069,56 +6604,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="X50" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="Y50" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>65822</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>123860</v>
+      </c>
+      <c r="C51" t="s">
+        <v>479</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="J51" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="K51" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="L51" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="O51" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -6136,56 +6675,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="X51" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="Y51" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>65822</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>123861</v>
+      </c>
+      <c r="C52" t="s">
+        <v>489</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="J52" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="K52" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="L52" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6197,56 +6740,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="X52" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="Y52" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>65822</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>876</v>
+      </c>
+      <c r="C53" t="s">
+        <v>498</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="J53" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="K53" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="L53" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="O53" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6258,47 +6805,51 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="X53" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="Y53" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>65822</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>123862</v>
+      </c>
+      <c r="C54" t="s">
+        <v>505</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="J54" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="K54" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="L54" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
@@ -6317,50 +6868,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>65822</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>123863</v>
+      </c>
+      <c r="C55" t="s">
+        <v>511</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="J55" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="K55" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="L55" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6380,41 +6935,45 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>65822</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>80539</v>
+      </c>
+      <c r="C56" t="s">
+        <v>517</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="J56" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="K56" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="L56" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
@@ -6433,50 +6992,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>65822</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>123864</v>
+      </c>
+      <c r="C57" t="s">
+        <v>523</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="J57" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="K57" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="L57" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="O57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -6496,50 +7059,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>65822</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>123865</v>
+      </c>
+      <c r="C58" t="s">
+        <v>530</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="J58" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="K58" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="L58" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="O58" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6551,56 +7118,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="X58" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="Y58" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>65822</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>117509</v>
+      </c>
+      <c r="C59" t="s">
+        <v>539</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="J59" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="K59" t="s">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="L59" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6618,56 +7189,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="X59" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
       <c r="Y59" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>65822</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>123866</v>
+      </c>
+      <c r="C60" t="s">
+        <v>548</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="J60" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="K60" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="L60" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -6685,50 +7260,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>65822</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>123867</v>
+      </c>
+      <c r="C61" t="s">
+        <v>554</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="J61" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="K61" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="L61" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="O61" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6742,50 +7321,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>65822</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>123868</v>
+      </c>
+      <c r="C62" t="s">
+        <v>559</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="J62" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="K62" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
       <c r="L62" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="O62" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6799,50 +7382,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>65822</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>5813</v>
+      </c>
+      <c r="C63" t="s">
+        <v>565</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>504</v>
+        <v>566</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>505</v>
+        <v>567</v>
       </c>
       <c r="J63" t="s">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="K63" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="L63" t="s">
-        <v>508</v>
+        <v>570</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6862,50 +7449,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>508</v>
+        <v>570</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>65822</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>123869</v>
+      </c>
+      <c r="C64" t="s">
+        <v>571</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="J64" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="K64" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="L64" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>513</v>
+        <v>576</v>
       </c>
       <c r="O64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6919,50 +7510,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>65822</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>123870</v>
+      </c>
+      <c r="C65" t="s">
+        <v>577</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>514</v>
+        <v>578</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
       <c r="J65" t="s">
-        <v>516</v>
+        <v>580</v>
       </c>
       <c r="K65" t="s">
-        <v>517</v>
+        <v>581</v>
       </c>
       <c r="L65" t="s">
-        <v>518</v>
+        <v>582</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="O65" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="n">
@@ -6982,50 +7577,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>518</v>
+        <v>582</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>65822</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>123871</v>
+      </c>
+      <c r="C66" t="s">
+        <v>584</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>520</v>
+        <v>585</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>521</v>
+        <v>586</v>
       </c>
       <c r="J66" t="s">
-        <v>522</v>
+        <v>587</v>
       </c>
       <c r="K66" t="s">
-        <v>523</v>
+        <v>588</v>
       </c>
       <c r="L66" t="s">
-        <v>524</v>
+        <v>589</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>513</v>
+        <v>576</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7039,50 +7638,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>524</v>
+        <v>589</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>65822</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>87100</v>
+      </c>
+      <c r="C67" t="s">
+        <v>590</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>525</v>
+        <v>591</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>526</v>
+        <v>592</v>
       </c>
       <c r="J67" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="K67" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
       <c r="L67" t="s">
-        <v>529</v>
+        <v>595</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>513</v>
+        <v>576</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7102,50 +7705,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>529</v>
+        <v>595</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>65822</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>123872</v>
+      </c>
+      <c r="C68" t="s">
+        <v>596</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>530</v>
+        <v>597</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>531</v>
+        <v>598</v>
       </c>
       <c r="J68" t="s">
-        <v>532</v>
+        <v>599</v>
       </c>
       <c r="K68" t="s">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="L68" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>513</v>
+        <v>576</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -7165,50 +7772,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>535</v>
+        <v>602</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>65822</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>123873</v>
+      </c>
+      <c r="C69" t="s">
+        <v>603</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>536</v>
+        <v>604</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>537</v>
+        <v>605</v>
       </c>
       <c r="J69" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="K69" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="L69" t="s">
-        <v>540</v>
+        <v>608</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7222,50 +7833,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>540</v>
+        <v>608</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>65822</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>123874</v>
+      </c>
+      <c r="C70" t="s">
+        <v>609</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>541</v>
+        <v>610</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>542</v>
+        <v>611</v>
       </c>
       <c r="J70" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="K70" t="s">
-        <v>543</v>
+        <v>612</v>
       </c>
       <c r="L70" t="s">
-        <v>544</v>
+        <v>613</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="O70" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -7279,50 +7894,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>544</v>
+        <v>613</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>65822</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>123875</v>
+      </c>
+      <c r="C71" t="s">
+        <v>614</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>545</v>
+        <v>615</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>546</v>
+        <v>616</v>
       </c>
       <c r="J71" t="s">
-        <v>547</v>
+        <v>617</v>
       </c>
       <c r="K71" t="s">
-        <v>548</v>
+        <v>618</v>
       </c>
       <c r="L71" t="s">
-        <v>549</v>
+        <v>619</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="O71" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7336,50 +7955,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>549</v>
+        <v>619</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>65822</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>123876</v>
+      </c>
+      <c r="C72" t="s">
+        <v>620</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>550</v>
+        <v>621</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>551</v>
+        <v>622</v>
       </c>
       <c r="J72" t="s">
-        <v>552</v>
+        <v>623</v>
       </c>
       <c r="K72" t="s">
-        <v>553</v>
+        <v>624</v>
       </c>
       <c r="L72" t="s">
-        <v>554</v>
+        <v>625</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7393,50 +8016,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>65822</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>123877</v>
+      </c>
+      <c r="C73" t="s">
+        <v>626</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>555</v>
+        <v>627</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>556</v>
+        <v>628</v>
       </c>
       <c r="J73" t="s">
-        <v>557</v>
+        <v>629</v>
       </c>
       <c r="K73" t="s">
-        <v>558</v>
+        <v>630</v>
       </c>
       <c r="L73" t="s">
-        <v>559</v>
+        <v>631</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -7456,50 +8083,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>560</v>
+        <v>632</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>65822</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>43659</v>
+      </c>
+      <c r="C74" t="s">
+        <v>633</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>561</v>
+        <v>634</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>562</v>
+        <v>635</v>
       </c>
       <c r="J74" t="s">
-        <v>563</v>
+        <v>636</v>
       </c>
       <c r="K74" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="L74" t="s">
-        <v>565</v>
+        <v>638</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="O74" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7513,50 +8144,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>565</v>
+        <v>638</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>65822</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>4828</v>
+      </c>
+      <c r="C75" t="s">
+        <v>639</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>566</v>
+        <v>640</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>567</v>
+        <v>641</v>
       </c>
       <c r="J75" t="s">
-        <v>568</v>
+        <v>642</v>
       </c>
       <c r="K75" t="s">
-        <v>569</v>
+        <v>643</v>
       </c>
       <c r="L75" t="s">
-        <v>570</v>
+        <v>644</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="O75" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -7570,50 +8205,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>570</v>
+        <v>644</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>65822</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>123878</v>
+      </c>
+      <c r="C76" t="s">
+        <v>645</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>571</v>
+        <v>646</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>572</v>
+        <v>647</v>
       </c>
       <c r="J76" t="s">
-        <v>573</v>
+        <v>648</v>
       </c>
       <c r="K76" t="s">
-        <v>574</v>
+        <v>649</v>
       </c>
       <c r="L76" t="s">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="O76" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
@@ -7627,50 +8266,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>575</v>
+        <v>650</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>65822</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>123879</v>
+      </c>
+      <c r="C77" t="s">
+        <v>651</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>576</v>
+        <v>652</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>577</v>
+        <v>653</v>
       </c>
       <c r="J77" t="s">
-        <v>573</v>
+        <v>648</v>
       </c>
       <c r="K77" t="s">
-        <v>578</v>
+        <v>654</v>
       </c>
       <c r="L77" t="s">
-        <v>579</v>
+        <v>655</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="n">
@@ -7690,50 +8333,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>579</v>
+        <v>655</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>65822</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>123880</v>
+      </c>
+      <c r="C78" t="s">
+        <v>657</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>581</v>
+        <v>658</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>582</v>
+        <v>659</v>
       </c>
       <c r="J78" t="s">
-        <v>583</v>
+        <v>660</v>
       </c>
       <c r="K78" t="s">
-        <v>584</v>
+        <v>661</v>
       </c>
       <c r="L78" t="s">
-        <v>585</v>
+        <v>662</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -7753,50 +8400,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>585</v>
+        <v>662</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>65822</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>123881</v>
+      </c>
+      <c r="C79" t="s">
+        <v>663</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>586</v>
+        <v>664</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>587</v>
+        <v>665</v>
       </c>
       <c r="J79" t="s">
+        <v>660</v>
+      </c>
+      <c r="K79" t="s">
+        <v>666</v>
+      </c>
+      <c r="L79" t="s">
+        <v>667</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
         <v>583</v>
       </c>
-      <c r="K79" t="s">
-        <v>588</v>
-      </c>
-      <c r="L79" t="s">
-        <v>589</v>
-      </c>
-      <c r="M79" t="n">
-        <v>5</v>
-      </c>
-      <c r="N79" t="s">
-        <v>519</v>
-      </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -7810,50 +8461,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>589</v>
+        <v>667</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>65822</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>123882</v>
+      </c>
+      <c r="C80" t="s">
+        <v>668</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>590</v>
+        <v>669</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>591</v>
+        <v>670</v>
       </c>
       <c r="J80" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="K80" t="s">
-        <v>593</v>
+        <v>672</v>
       </c>
       <c r="L80" t="s">
-        <v>594</v>
+        <v>673</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="O80" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="s"/>
@@ -7867,50 +8522,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>594</v>
+        <v>673</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>65822</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>48762</v>
+      </c>
+      <c r="C81" t="s">
+        <v>674</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>595</v>
+        <v>675</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>596</v>
+        <v>676</v>
       </c>
       <c r="J81" t="s">
-        <v>597</v>
+        <v>677</v>
       </c>
       <c r="K81" t="s">
-        <v>598</v>
+        <v>678</v>
       </c>
       <c r="L81" t="s">
-        <v>599</v>
+        <v>679</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="O81" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7928,56 +8587,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="X81" t="s">
-        <v>601</v>
+        <v>681</v>
       </c>
       <c r="Y81" t="s">
-        <v>602</v>
+        <v>682</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>65822</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>123883</v>
+      </c>
+      <c r="C82" t="s">
+        <v>683</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>603</v>
+        <v>684</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>604</v>
+        <v>685</v>
       </c>
       <c r="J82" t="s">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="K82" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="L82" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="O82" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="n">
@@ -7995,56 +8658,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="X82" t="s">
-        <v>601</v>
+        <v>681</v>
       </c>
       <c r="Y82" t="s">
-        <v>608</v>
+        <v>689</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>65822</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>123884</v>
+      </c>
+      <c r="C83" t="s">
+        <v>690</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>609</v>
+        <v>691</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>610</v>
+        <v>692</v>
       </c>
       <c r="J83" t="s">
-        <v>611</v>
+        <v>693</v>
       </c>
       <c r="K83" t="s">
-        <v>612</v>
+        <v>694</v>
       </c>
       <c r="L83" t="s">
-        <v>613</v>
+        <v>695</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="O83" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -8056,56 +8723,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="X83" t="s">
-        <v>601</v>
+        <v>681</v>
       </c>
       <c r="Y83" t="s">
-        <v>614</v>
+        <v>696</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>65822</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>123885</v>
+      </c>
+      <c r="C84" t="s">
+        <v>697</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>615</v>
+        <v>698</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>616</v>
+        <v>699</v>
       </c>
       <c r="J84" t="s">
-        <v>611</v>
+        <v>693</v>
       </c>
       <c r="K84" t="s">
-        <v>617</v>
+        <v>700</v>
       </c>
       <c r="L84" t="s">
-        <v>618</v>
+        <v>701</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="O84" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="s"/>
@@ -8117,56 +8788,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="X84" t="s">
-        <v>601</v>
+        <v>681</v>
       </c>
       <c r="Y84" t="s">
-        <v>619</v>
+        <v>702</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>65822</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>123886</v>
+      </c>
+      <c r="C85" t="s">
+        <v>703</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>620</v>
+        <v>704</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>621</v>
+        <v>705</v>
       </c>
       <c r="J85" t="s">
-        <v>622</v>
+        <v>706</v>
       </c>
       <c r="K85" t="s">
-        <v>623</v>
+        <v>707</v>
       </c>
       <c r="L85" t="s">
-        <v>624</v>
+        <v>708</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="O85" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -8178,56 +8853,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X85" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y85" t="s">
-        <v>627</v>
+        <v>711</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>65822</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>1769</v>
+      </c>
+      <c r="C86" t="s">
+        <v>712</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>628</v>
+        <v>713</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>629</v>
+        <v>714</v>
       </c>
       <c r="J86" t="s">
-        <v>630</v>
+        <v>715</v>
       </c>
       <c r="K86" t="s">
-        <v>631</v>
+        <v>716</v>
       </c>
       <c r="L86" t="s">
-        <v>632</v>
+        <v>717</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="O86" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="n">
@@ -8243,56 +8922,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X86" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y86" t="s">
-        <v>633</v>
+        <v>718</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>65822</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>123887</v>
+      </c>
+      <c r="C87" t="s">
+        <v>719</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>634</v>
+        <v>720</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>635</v>
+        <v>721</v>
       </c>
       <c r="J87" t="s">
-        <v>630</v>
+        <v>715</v>
       </c>
       <c r="K87" t="s">
-        <v>636</v>
+        <v>722</v>
       </c>
       <c r="L87" t="s">
-        <v>637</v>
+        <v>723</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="O87" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8308,56 +8991,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X87" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y87" t="s">
-        <v>638</v>
+        <v>724</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>65822</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>123888</v>
+      </c>
+      <c r="C88" t="s">
+        <v>725</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>639</v>
+        <v>726</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>640</v>
+        <v>727</v>
       </c>
       <c r="J88" t="s">
-        <v>641</v>
+        <v>728</v>
       </c>
       <c r="K88" t="s">
-        <v>642</v>
+        <v>729</v>
       </c>
       <c r="L88" t="s">
-        <v>643</v>
+        <v>730</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="O88" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P88" t="s"/>
       <c r="Q88" t="s"/>
@@ -8369,56 +9056,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X88" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y88" t="s">
-        <v>644</v>
+        <v>731</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>65822</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>123889</v>
+      </c>
+      <c r="C89" t="s">
+        <v>732</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>645</v>
+        <v>733</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>646</v>
+        <v>734</v>
       </c>
       <c r="J89" t="s">
-        <v>647</v>
+        <v>735</v>
       </c>
       <c r="K89" t="s">
-        <v>648</v>
+        <v>736</v>
       </c>
       <c r="L89" t="s">
-        <v>649</v>
+        <v>737</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="O89" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P89" t="s"/>
       <c r="Q89" t="s"/>
@@ -8430,56 +9121,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X89" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y89" t="s">
-        <v>650</v>
+        <v>738</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>65822</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>123890</v>
+      </c>
+      <c r="C90" t="s">
+        <v>739</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>651</v>
+        <v>740</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>652</v>
+        <v>741</v>
       </c>
       <c r="J90" t="s">
-        <v>647</v>
+        <v>735</v>
       </c>
       <c r="K90" t="s">
-        <v>653</v>
+        <v>742</v>
       </c>
       <c r="L90" t="s">
-        <v>654</v>
+        <v>743</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="O90" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P90" t="s"/>
       <c r="Q90" t="s"/>
@@ -8491,56 +9186,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X90" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y90" t="s">
-        <v>655</v>
+        <v>744</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>65822</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>123891</v>
+      </c>
+      <c r="C91" t="s">
+        <v>745</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>656</v>
+        <v>746</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>657</v>
+        <v>747</v>
       </c>
       <c r="J91" t="s">
-        <v>658</v>
+        <v>748</v>
       </c>
       <c r="K91" t="s">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="L91" t="s">
-        <v>660</v>
+        <v>750</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="O91" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -8556,56 +9255,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X91" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y91" t="s">
-        <v>661</v>
+        <v>751</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>65822</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>123892</v>
+      </c>
+      <c r="C92" t="s">
+        <v>752</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>662</v>
+        <v>753</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>663</v>
+        <v>754</v>
       </c>
       <c r="J92" t="s">
-        <v>664</v>
+        <v>755</v>
       </c>
       <c r="K92" t="s">
-        <v>665</v>
+        <v>756</v>
       </c>
       <c r="L92" t="s">
-        <v>666</v>
+        <v>757</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="O92" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P92" t="s"/>
       <c r="Q92" t="s"/>
@@ -8617,56 +9320,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X92" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y92" t="s">
-        <v>667</v>
+        <v>758</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>65822</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>123893</v>
+      </c>
+      <c r="C93" t="s">
+        <v>759</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>668</v>
+        <v>760</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>669</v>
+        <v>761</v>
       </c>
       <c r="J93" t="s">
-        <v>670</v>
+        <v>762</v>
       </c>
       <c r="K93" t="s">
-        <v>671</v>
+        <v>763</v>
       </c>
       <c r="L93" t="s">
-        <v>672</v>
+        <v>764</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="O93" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P93" t="s"/>
       <c r="Q93" t="s"/>
@@ -8678,56 +9385,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X93" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y93" t="s">
-        <v>673</v>
+        <v>765</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>65822</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>123894</v>
+      </c>
+      <c r="C94" t="s">
+        <v>766</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>674</v>
+        <v>767</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>675</v>
+        <v>768</v>
       </c>
       <c r="J94" t="s">
-        <v>676</v>
+        <v>769</v>
       </c>
       <c r="K94" t="s">
-        <v>677</v>
+        <v>770</v>
       </c>
       <c r="L94" t="s">
-        <v>678</v>
+        <v>771</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>679</v>
+        <v>772</v>
       </c>
       <c r="O94" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P94" t="s"/>
       <c r="Q94" t="s"/>
@@ -8739,56 +9450,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X94" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y94" t="s">
-        <v>680</v>
+        <v>773</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>65822</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>4806</v>
+      </c>
+      <c r="C95" t="s">
+        <v>774</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>681</v>
+        <v>775</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>682</v>
+        <v>776</v>
       </c>
       <c r="J95" t="s">
-        <v>683</v>
+        <v>777</v>
       </c>
       <c r="K95" t="s">
-        <v>684</v>
+        <v>778</v>
       </c>
       <c r="L95" t="s">
-        <v>685</v>
+        <v>779</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>679</v>
+        <v>772</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="s"/>
       <c r="Q95" t="s"/>
@@ -8800,56 +9515,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X95" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y95" t="s">
-        <v>686</v>
+        <v>780</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>65822</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>15668</v>
+      </c>
+      <c r="C96" t="s">
+        <v>781</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>687</v>
+        <v>782</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>688</v>
+        <v>783</v>
       </c>
       <c r="J96" t="s">
-        <v>689</v>
+        <v>784</v>
       </c>
       <c r="K96" t="s">
-        <v>690</v>
+        <v>785</v>
       </c>
       <c r="L96" t="s">
-        <v>691</v>
+        <v>786</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>679</v>
+        <v>772</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="s"/>
       <c r="Q96" t="s"/>
@@ -8861,56 +9580,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X96" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y96" t="s">
-        <v>692</v>
+        <v>787</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>65822</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>123895</v>
+      </c>
+      <c r="C97" t="s">
+        <v>788</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
       <c r="J97" t="s">
-        <v>695</v>
+        <v>791</v>
       </c>
       <c r="K97" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
       <c r="L97" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>679</v>
+        <v>772</v>
       </c>
       <c r="O97" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P97" t="s"/>
       <c r="Q97" t="s"/>
@@ -8922,56 +9645,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X97" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y97" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>65822</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>30966</v>
+      </c>
+      <c r="C98" t="s">
+        <v>795</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>699</v>
+        <v>796</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>700</v>
+        <v>797</v>
       </c>
       <c r="J98" t="s">
-        <v>701</v>
+        <v>798</v>
       </c>
       <c r="K98" t="s">
-        <v>702</v>
+        <v>799</v>
       </c>
       <c r="L98" t="s">
-        <v>703</v>
+        <v>800</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>679</v>
+        <v>772</v>
       </c>
       <c r="O98" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P98" t="s"/>
       <c r="Q98" t="s"/>
@@ -8983,56 +9710,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X98" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y98" t="s">
-        <v>704</v>
+        <v>801</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>65822</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>123896</v>
+      </c>
+      <c r="C99" t="s">
+        <v>802</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>705</v>
+        <v>803</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>706</v>
+        <v>804</v>
       </c>
       <c r="J99" t="s">
-        <v>701</v>
+        <v>798</v>
       </c>
       <c r="K99" t="s">
-        <v>707</v>
+        <v>805</v>
       </c>
       <c r="L99" t="s">
-        <v>708</v>
+        <v>806</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>679</v>
+        <v>772</v>
       </c>
       <c r="O99" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P99" t="s"/>
       <c r="Q99" t="n">
@@ -9048,56 +9779,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X99" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y99" t="s">
-        <v>709</v>
+        <v>807</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>65822</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>28553</v>
+      </c>
+      <c r="C100" t="s">
+        <v>808</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>710</v>
+        <v>809</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>711</v>
+        <v>810</v>
       </c>
       <c r="J100" t="s">
-        <v>701</v>
+        <v>798</v>
       </c>
       <c r="K100" t="s">
-        <v>712</v>
+        <v>811</v>
       </c>
       <c r="L100" t="s">
-        <v>713</v>
+        <v>812</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>679</v>
+        <v>772</v>
       </c>
       <c r="O100" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P100" t="s"/>
       <c r="Q100" t="s"/>
@@ -9109,56 +9844,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>714</v>
+        <v>813</v>
       </c>
       <c r="X100" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y100" t="s">
-        <v>715</v>
+        <v>814</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>65822</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>123897</v>
+      </c>
+      <c r="C101" t="s">
+        <v>815</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>716</v>
+        <v>816</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>717</v>
+        <v>817</v>
       </c>
       <c r="J101" t="s">
-        <v>701</v>
+        <v>798</v>
       </c>
       <c r="K101" t="s">
-        <v>718</v>
+        <v>818</v>
       </c>
       <c r="L101" t="s">
-        <v>719</v>
+        <v>819</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>679</v>
+        <v>772</v>
       </c>
       <c r="O101" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9176,56 +9915,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X101" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y101" t="s">
-        <v>720</v>
+        <v>820</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>65822</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>4766</v>
+      </c>
+      <c r="C102" t="s">
+        <v>821</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>721</v>
+        <v>822</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>722</v>
+        <v>823</v>
       </c>
       <c r="J102" t="s">
-        <v>723</v>
+        <v>824</v>
       </c>
       <c r="K102" t="s">
-        <v>724</v>
+        <v>825</v>
       </c>
       <c r="L102" t="s">
-        <v>725</v>
+        <v>826</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>679</v>
+        <v>772</v>
       </c>
       <c r="O102" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P102" t="s"/>
       <c r="Q102" t="s"/>
@@ -9237,56 +9980,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X102" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y102" t="s">
-        <v>726</v>
+        <v>827</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>65822</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>83706</v>
+      </c>
+      <c r="C103" t="s">
+        <v>828</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>727</v>
+        <v>829</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>728</v>
+        <v>830</v>
       </c>
       <c r="J103" t="s">
-        <v>729</v>
+        <v>831</v>
       </c>
       <c r="K103" t="s">
-        <v>730</v>
+        <v>832</v>
       </c>
       <c r="L103" t="s">
-        <v>731</v>
+        <v>833</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>732</v>
+        <v>834</v>
       </c>
       <c r="O103" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P103" t="s"/>
       <c r="Q103" t="s"/>
@@ -9298,56 +10045,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X103" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y103" t="s">
-        <v>733</v>
+        <v>835</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>65822</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>6540</v>
+      </c>
+      <c r="C104" t="s">
+        <v>836</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>734</v>
+        <v>837</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>735</v>
+        <v>838</v>
       </c>
       <c r="J104" t="s">
-        <v>736</v>
+        <v>839</v>
       </c>
       <c r="K104" t="s">
-        <v>737</v>
+        <v>840</v>
       </c>
       <c r="L104" t="s">
-        <v>738</v>
+        <v>841</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>732</v>
+        <v>834</v>
       </c>
       <c r="O104" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P104" t="s"/>
       <c r="Q104" t="s"/>
@@ -9359,56 +10110,60 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X104" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y104" t="s">
-        <v>739</v>
+        <v>842</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>65822</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>123898</v>
+      </c>
+      <c r="C105" t="s">
+        <v>843</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>740</v>
+        <v>844</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>741</v>
+        <v>845</v>
       </c>
       <c r="J105" t="s">
-        <v>742</v>
+        <v>846</v>
       </c>
       <c r="K105" t="s">
-        <v>743</v>
+        <v>847</v>
       </c>
       <c r="L105" t="s">
-        <v>744</v>
+        <v>848</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>732</v>
+        <v>834</v>
       </c>
       <c r="O105" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P105" t="s"/>
       <c r="Q105" t="s"/>
@@ -9424,56 +10179,60 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X105" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y105" t="s">
-        <v>745</v>
+        <v>849</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>65822</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>123899</v>
+      </c>
+      <c r="C106" t="s">
+        <v>850</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>746</v>
+        <v>851</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>747</v>
+        <v>852</v>
       </c>
       <c r="J106" t="s">
-        <v>748</v>
+        <v>853</v>
       </c>
       <c r="K106" t="s">
-        <v>749</v>
+        <v>854</v>
       </c>
       <c r="L106" t="s">
-        <v>750</v>
+        <v>855</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>751</v>
+        <v>856</v>
       </c>
       <c r="O106" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9491,56 +10250,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X106" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y106" t="s">
-        <v>752</v>
+        <v>857</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>65822</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>14804</v>
+      </c>
+      <c r="C107" t="s">
+        <v>242</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>753</v>
+        <v>858</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>754</v>
+        <v>859</v>
       </c>
       <c r="J107" t="s">
-        <v>755</v>
+        <v>860</v>
       </c>
       <c r="K107" t="s">
-        <v>756</v>
+        <v>861</v>
       </c>
       <c r="L107" t="s">
-        <v>757</v>
+        <v>862</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>732</v>
+        <v>834</v>
       </c>
       <c r="O107" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P107" t="s"/>
       <c r="Q107" t="n">
@@ -9558,56 +10321,60 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X107" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y107" t="s">
-        <v>758</v>
+        <v>863</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>65822</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>123900</v>
+      </c>
+      <c r="C108" t="s">
+        <v>864</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>759</v>
+        <v>865</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>760</v>
+        <v>866</v>
       </c>
       <c r="J108" t="s">
-        <v>761</v>
+        <v>867</v>
       </c>
       <c r="K108" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="L108" t="s">
-        <v>762</v>
+        <v>868</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>751</v>
+        <v>856</v>
       </c>
       <c r="O108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P108" t="s"/>
       <c r="Q108" t="s"/>
@@ -9619,56 +10386,60 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X108" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y108" t="s">
-        <v>763</v>
+        <v>869</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>65822</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>47077</v>
+      </c>
+      <c r="C109" t="s">
+        <v>870</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>764</v>
+        <v>871</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>765</v>
+        <v>872</v>
       </c>
       <c r="J109" t="s">
-        <v>761</v>
+        <v>867</v>
       </c>
       <c r="K109" t="s">
-        <v>766</v>
+        <v>873</v>
       </c>
       <c r="L109" t="s">
-        <v>767</v>
+        <v>874</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="s">
-        <v>751</v>
+        <v>856</v>
       </c>
       <c r="O109" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -9688,50 +10459,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>767</v>
+        <v>874</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>65822</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>123901</v>
+      </c>
+      <c r="C110" t="s">
+        <v>875</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>768</v>
+        <v>876</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>769</v>
+        <v>877</v>
       </c>
       <c r="J110" t="s">
-        <v>770</v>
+        <v>878</v>
       </c>
       <c r="K110" t="s">
-        <v>771</v>
+        <v>879</v>
       </c>
       <c r="L110" t="s">
-        <v>772</v>
+        <v>880</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
       </c>
       <c r="N110" t="s">
-        <v>751</v>
+        <v>856</v>
       </c>
       <c r="O110" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -9751,50 +10526,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>772</v>
+        <v>880</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>65822</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>39498</v>
+      </c>
+      <c r="C111" t="s">
+        <v>881</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>773</v>
+        <v>882</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>774</v>
+        <v>883</v>
       </c>
       <c r="J111" t="s">
-        <v>770</v>
+        <v>878</v>
       </c>
       <c r="K111" t="s">
-        <v>775</v>
+        <v>884</v>
       </c>
       <c r="L111" t="s">
-        <v>776</v>
+        <v>885</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>751</v>
+        <v>856</v>
       </c>
       <c r="O111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P111" t="s"/>
       <c r="Q111" t="s"/>
@@ -9812,50 +10591,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>776</v>
+        <v>885</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>65822</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>123902</v>
+      </c>
+      <c r="C112" t="s">
+        <v>886</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>777</v>
+        <v>887</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>778</v>
+        <v>888</v>
       </c>
       <c r="J112" t="s">
-        <v>779</v>
+        <v>889</v>
       </c>
       <c r="K112" t="s">
-        <v>780</v>
+        <v>890</v>
       </c>
       <c r="L112" t="s">
-        <v>781</v>
+        <v>891</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
       </c>
       <c r="N112" t="s">
-        <v>751</v>
+        <v>856</v>
       </c>
       <c r="O112" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P112" t="s"/>
       <c r="Q112" t="s"/>
@@ -9869,50 +10652,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>781</v>
+        <v>891</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>65822</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>123903</v>
+      </c>
+      <c r="C113" t="s">
+        <v>892</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>782</v>
+        <v>893</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>783</v>
+        <v>894</v>
       </c>
       <c r="J113" t="s">
-        <v>784</v>
+        <v>895</v>
       </c>
       <c r="K113" t="s">
-        <v>785</v>
+        <v>896</v>
       </c>
       <c r="L113" t="s">
-        <v>786</v>
+        <v>897</v>
       </c>
       <c r="M113" t="n">
         <v>3</v>
       </c>
       <c r="N113" t="s">
-        <v>751</v>
+        <v>856</v>
       </c>
       <c r="O113" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P113" t="s"/>
       <c r="Q113" t="s"/>
@@ -9924,56 +10711,60 @@
         <v>0</v>
       </c>
       <c r="W113" t="s">
-        <v>787</v>
+        <v>898</v>
       </c>
       <c r="X113" t="s">
-        <v>788</v>
+        <v>899</v>
       </c>
       <c r="Y113" t="s">
-        <v>789</v>
+        <v>900</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>65822</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>123904</v>
+      </c>
+      <c r="C114" t="s">
+        <v>901</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>790</v>
+        <v>902</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>791</v>
+        <v>903</v>
       </c>
       <c r="J114" t="s">
-        <v>792</v>
+        <v>904</v>
       </c>
       <c r="K114" t="s">
-        <v>793</v>
+        <v>905</v>
       </c>
       <c r="L114" t="s">
-        <v>794</v>
+        <v>906</v>
       </c>
       <c r="M114" t="n">
         <v>4</v>
       </c>
       <c r="N114" t="s">
-        <v>751</v>
+        <v>856</v>
       </c>
       <c r="O114" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P114" t="s"/>
       <c r="Q114" t="s"/>
@@ -9985,13 +10776,13 @@
         <v>0</v>
       </c>
       <c r="W114" t="s">
-        <v>787</v>
+        <v>898</v>
       </c>
       <c r="X114" t="s">
-        <v>788</v>
+        <v>899</v>
       </c>
       <c r="Y114" t="s">
-        <v>795</v>
+        <v>907</v>
       </c>
     </row>
     <row r="115">
@@ -10004,37 +10795,37 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>796</v>
+        <v>908</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>797</v>
+        <v>909</v>
       </c>
       <c r="J115" t="s">
-        <v>798</v>
+        <v>910</v>
       </c>
       <c r="K115" t="s">
-        <v>799</v>
+        <v>911</v>
       </c>
       <c r="L115" t="s">
-        <v>800</v>
+        <v>912</v>
       </c>
       <c r="M115" t="n">
         <v>5</v>
       </c>
       <c r="N115" t="s">
-        <v>801</v>
+        <v>913</v>
       </c>
       <c r="O115" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P115" t="s"/>
       <c r="Q115" t="s"/>
@@ -10046,56 +10837,60 @@
         <v>0</v>
       </c>
       <c r="W115" t="s">
-        <v>802</v>
+        <v>914</v>
       </c>
       <c r="X115" t="s">
-        <v>803</v>
+        <v>915</v>
       </c>
       <c r="Y115" t="s">
-        <v>804</v>
+        <v>916</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>65822</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>228</v>
+      </c>
+      <c r="C116" t="s">
+        <v>174</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>805</v>
+        <v>917</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>806</v>
+        <v>918</v>
       </c>
       <c r="J116" t="s">
-        <v>807</v>
+        <v>919</v>
       </c>
       <c r="K116" t="s">
-        <v>808</v>
+        <v>920</v>
       </c>
       <c r="L116" t="s">
-        <v>809</v>
+        <v>921</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
       </c>
       <c r="N116" t="s">
-        <v>801</v>
+        <v>913</v>
       </c>
       <c r="O116" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P116" t="n">
         <v>5</v>
@@ -10113,56 +10908,60 @@
         <v>0</v>
       </c>
       <c r="W116" t="s">
-        <v>802</v>
+        <v>914</v>
       </c>
       <c r="X116" t="s">
-        <v>803</v>
+        <v>915</v>
       </c>
       <c r="Y116" t="s">
-        <v>810</v>
+        <v>922</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>65822</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>11525</v>
+      </c>
+      <c r="C117" t="s">
+        <v>923</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>811</v>
+        <v>924</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>812</v>
+        <v>925</v>
       </c>
       <c r="J117" t="s">
-        <v>813</v>
+        <v>926</v>
       </c>
       <c r="K117" t="s">
-        <v>814</v>
+        <v>927</v>
       </c>
       <c r="L117" t="s">
-        <v>815</v>
+        <v>928</v>
       </c>
       <c r="M117" t="n">
         <v>5</v>
       </c>
       <c r="N117" t="s">
-        <v>801</v>
+        <v>913</v>
       </c>
       <c r="O117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P117" t="s"/>
       <c r="Q117" t="s"/>
@@ -10178,13 +10977,13 @@
         <v>0</v>
       </c>
       <c r="W117" t="s">
-        <v>802</v>
+        <v>914</v>
       </c>
       <c r="X117" t="s">
-        <v>803</v>
+        <v>915</v>
       </c>
       <c r="Y117" t="s">
-        <v>816</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>
